--- a/_files/requirements/master_data/master-machine_master.xlsx
+++ b/_files/requirements/master_data/master-machine_master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AA4B1140-B774-4FD2-BE86-9B32197F0294}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2674048B-BDAF-4944-9EC4-7E9356D578B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -88,9 +88,6 @@
     <t>b2ml13213</t>
   </si>
   <si>
-    <t>00-FF-D3-E3-9A-27</t>
-  </si>
-  <si>
     <t>CM6384145127</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>A4LNKML18485</t>
   </si>
   <si>
-    <t>02-50-F2-00-00-01</t>
-  </si>
-  <si>
     <t>FB5962911672</t>
   </si>
   <si>
@@ -775,21 +769,12 @@
     <t>192.168.0.392</t>
   </si>
   <si>
-    <t>F1-00-DD-3D-7B-EB</t>
-  </si>
-  <si>
     <t>192.168.0.393</t>
   </si>
   <si>
-    <t>4D-68-03-2F-DD-ED</t>
-  </si>
-  <si>
     <t>192.168.0.394</t>
   </si>
   <si>
-    <t>8E-B0-46-73-77-34</t>
-  </si>
-  <si>
     <t>192.168.0.395</t>
   </si>
   <si>
@@ -1012,9 +997,6 @@
     <t>MOSIP-Security2</t>
   </si>
   <si>
-    <t>9C-B6-D0-C5-B0-31</t>
-  </si>
-  <si>
     <t>00-0D-3A-F2-CB-29</t>
   </si>
   <si>
@@ -1022,6 +1004,33 @@
   </si>
   <si>
     <t>A8-1E-84-DB-EF-73</t>
+  </si>
+  <si>
+    <t>70-5A-0F-8C-20-0D</t>
+  </si>
+  <si>
+    <t>D4-3D-7E-C0-8C-4A</t>
+  </si>
+  <si>
+    <t>b2md20452</t>
+  </si>
+  <si>
+    <t>A2ML19105</t>
+  </si>
+  <si>
+    <t>70-5A-0F-84-40-A2</t>
+  </si>
+  <si>
+    <t>DESKTOP-TB65MJM</t>
+  </si>
+  <si>
+    <t>34-17-EB-88-AB-37</t>
+  </si>
+  <si>
+    <t>3C-18-A0-76-38-4F</t>
+  </si>
+  <si>
+    <t>E8-6A-64-0F-F8-A1</t>
   </si>
 </sst>
 </file>
@@ -1864,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1978,13 +1987,13 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
       </c>
       <c r="F4">
         <v>1001</v>
@@ -2007,16 +2016,16 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
       </c>
       <c r="F5">
         <v>1001</v>
@@ -2039,16 +2048,16 @@
         <v>10005</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
       <c r="F6">
         <v>1001</v>
@@ -2071,16 +2080,16 @@
         <v>10006</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
       </c>
       <c r="F7">
         <v>1001</v>
@@ -2103,16 +2112,16 @@
         <v>10007</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
       </c>
       <c r="F8">
         <v>1001</v>
@@ -2135,16 +2144,16 @@
         <v>10008</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
       </c>
       <c r="F9">
         <v>1001</v>
@@ -2167,16 +2176,16 @@
         <v>10009</v>
       </c>
       <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
       </c>
       <c r="F10">
         <v>1001</v>
@@ -2199,16 +2208,16 @@
         <v>10010</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
       </c>
       <c r="F11">
         <v>1001</v>
@@ -2231,16 +2240,16 @@
         <v>10011</v>
       </c>
       <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
       </c>
       <c r="F12">
         <v>1001</v>
@@ -2263,16 +2272,16 @@
         <v>10012</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
       </c>
       <c r="F13">
         <v>1001</v>
@@ -2295,16 +2304,16 @@
         <v>10013</v>
       </c>
       <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
       </c>
       <c r="F14">
         <v>1001</v>
@@ -2327,16 +2336,16 @@
         <v>10014</v>
       </c>
       <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
       </c>
       <c r="F15">
         <v>1001</v>
@@ -2359,16 +2368,16 @@
         <v>10015</v>
       </c>
       <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
       </c>
       <c r="F16">
         <v>1001</v>
@@ -2391,16 +2400,16 @@
         <v>10016</v>
       </c>
       <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
       </c>
       <c r="F17">
         <v>1001</v>
@@ -2423,16 +2432,16 @@
         <v>10017</v>
       </c>
       <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
       </c>
       <c r="F18">
         <v>1001</v>
@@ -2455,16 +2464,16 @@
         <v>10018</v>
       </c>
       <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>83</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
       </c>
       <c r="F19">
         <v>1001</v>
@@ -2487,16 +2496,16 @@
         <v>10019</v>
       </c>
       <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>87</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
       </c>
       <c r="F20">
         <v>1001</v>
@@ -2519,16 +2528,16 @@
         <v>10020</v>
       </c>
       <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
       </c>
       <c r="F21">
         <v>1001</v>
@@ -2551,16 +2560,16 @@
         <v>10021</v>
       </c>
       <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>95</v>
-      </c>
-      <c r="E22" t="s">
-        <v>96</v>
       </c>
       <c r="F22">
         <v>1001</v>
@@ -2583,16 +2592,16 @@
         <v>10022</v>
       </c>
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>99</v>
-      </c>
-      <c r="E23" t="s">
-        <v>100</v>
       </c>
       <c r="F23">
         <v>1001</v>
@@ -2615,16 +2624,16 @@
         <v>10023</v>
       </c>
       <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>102</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>103</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
       </c>
       <c r="F24">
         <v>1001</v>
@@ -2647,16 +2656,16 @@
         <v>10024</v>
       </c>
       <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>107</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
       </c>
       <c r="F25">
         <v>1001</v>
@@ -2679,16 +2688,16 @@
         <v>10025</v>
       </c>
       <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>111</v>
-      </c>
-      <c r="E26" t="s">
-        <v>112</v>
       </c>
       <c r="F26">
         <v>1001</v>
@@ -2711,16 +2720,16 @@
         <v>10026</v>
       </c>
       <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>115</v>
-      </c>
-      <c r="E27" t="s">
-        <v>116</v>
       </c>
       <c r="F27">
         <v>1001</v>
@@ -2743,16 +2752,16 @@
         <v>10027</v>
       </c>
       <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>119</v>
-      </c>
-      <c r="E28" t="s">
-        <v>120</v>
       </c>
       <c r="F28">
         <v>1001</v>
@@ -2775,16 +2784,16 @@
         <v>10028</v>
       </c>
       <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>122</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>123</v>
-      </c>
-      <c r="E29" t="s">
-        <v>124</v>
       </c>
       <c r="F29">
         <v>1001</v>
@@ -2807,16 +2816,16 @@
         <v>10029</v>
       </c>
       <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
         <v>125</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>127</v>
-      </c>
-      <c r="E30" t="s">
-        <v>128</v>
       </c>
       <c r="F30">
         <v>1001</v>
@@ -2839,16 +2848,16 @@
         <v>10030</v>
       </c>
       <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
         <v>129</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>130</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>131</v>
-      </c>
-      <c r="E31" t="s">
-        <v>132</v>
       </c>
       <c r="F31">
         <v>1001</v>
@@ -2871,16 +2880,16 @@
         <v>10031</v>
       </c>
       <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>134</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>135</v>
-      </c>
-      <c r="E32" t="s">
-        <v>136</v>
       </c>
       <c r="F32">
         <v>1001</v>
@@ -2903,16 +2912,16 @@
         <v>10032</v>
       </c>
       <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
         <v>137</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>138</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>139</v>
-      </c>
-      <c r="E33" t="s">
-        <v>140</v>
       </c>
       <c r="F33">
         <v>1001</v>
@@ -2935,16 +2944,16 @@
         <v>10033</v>
       </c>
       <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
         <v>141</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>142</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>143</v>
-      </c>
-      <c r="E34" t="s">
-        <v>144</v>
       </c>
       <c r="F34">
         <v>1001</v>
@@ -2967,16 +2976,16 @@
         <v>10034</v>
       </c>
       <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
         <v>145</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>146</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>147</v>
-      </c>
-      <c r="E35" t="s">
-        <v>148</v>
       </c>
       <c r="F35">
         <v>1001</v>
@@ -2999,16 +3008,16 @@
         <v>10035</v>
       </c>
       <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
         <v>149</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>150</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>151</v>
-      </c>
-      <c r="E36" t="s">
-        <v>152</v>
       </c>
       <c r="F36">
         <v>1001</v>
@@ -3031,16 +3040,16 @@
         <v>10036</v>
       </c>
       <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" t="s">
         <v>153</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>154</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>155</v>
-      </c>
-      <c r="E37" t="s">
-        <v>156</v>
       </c>
       <c r="F37">
         <v>1001</v>
@@ -3063,16 +3072,16 @@
         <v>10037</v>
       </c>
       <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
         <v>157</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>158</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>159</v>
-      </c>
-      <c r="E38" t="s">
-        <v>160</v>
       </c>
       <c r="F38">
         <v>1001</v>
@@ -3095,16 +3104,16 @@
         <v>10038</v>
       </c>
       <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
         <v>161</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>162</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>163</v>
-      </c>
-      <c r="E39" t="s">
-        <v>164</v>
       </c>
       <c r="F39">
         <v>1001</v>
@@ -3127,16 +3136,16 @@
         <v>10039</v>
       </c>
       <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" t="s">
         <v>165</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>166</v>
-      </c>
-      <c r="D40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" t="s">
-        <v>168</v>
       </c>
       <c r="F40">
         <v>1001</v>
@@ -3159,16 +3168,16 @@
         <v>10040</v>
       </c>
       <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
         <v>169</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>170</v>
-      </c>
-      <c r="D41" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" t="s">
-        <v>172</v>
       </c>
       <c r="F41">
         <v>1001</v>
@@ -3191,16 +3200,16 @@
         <v>10041</v>
       </c>
       <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
         <v>173</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>174</v>
-      </c>
-      <c r="D42" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" t="s">
-        <v>176</v>
       </c>
       <c r="F42">
         <v>1001</v>
@@ -3223,16 +3232,16 @@
         <v>10042</v>
       </c>
       <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
         <v>177</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>178</v>
-      </c>
-      <c r="D43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" t="s">
-        <v>180</v>
       </c>
       <c r="F43">
         <v>1001</v>
@@ -3255,16 +3264,16 @@
         <v>10043</v>
       </c>
       <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" t="s">
         <v>181</v>
-      </c>
-      <c r="C44" t="s">
-        <v>333</v>
-      </c>
-      <c r="D44" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" t="s">
-        <v>183</v>
       </c>
       <c r="F44">
         <v>1001</v>
@@ -3287,16 +3296,16 @@
         <v>10044</v>
       </c>
       <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" t="s">
         <v>184</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>185</v>
-      </c>
-      <c r="D45" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" t="s">
-        <v>187</v>
       </c>
       <c r="F45">
         <v>1001</v>
@@ -3319,16 +3328,16 @@
         <v>10045</v>
       </c>
       <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
         <v>188</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>189</v>
-      </c>
-      <c r="D46" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" t="s">
-        <v>191</v>
       </c>
       <c r="F46">
         <v>1001</v>
@@ -3351,16 +3360,16 @@
         <v>10046</v>
       </c>
       <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" t="s">
         <v>192</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>193</v>
-      </c>
-      <c r="D47" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" t="s">
-        <v>195</v>
       </c>
       <c r="F47">
         <v>1001</v>
@@ -3383,16 +3392,16 @@
         <v>10047</v>
       </c>
       <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
         <v>196</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>197</v>
-      </c>
-      <c r="D48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" t="s">
-        <v>199</v>
       </c>
       <c r="F48">
         <v>1001</v>
@@ -3415,16 +3424,16 @@
         <v>10048</v>
       </c>
       <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" t="s">
         <v>200</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>201</v>
-      </c>
-      <c r="D49" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" t="s">
-        <v>203</v>
       </c>
       <c r="F49">
         <v>1001</v>
@@ -3447,16 +3456,16 @@
         <v>10049</v>
       </c>
       <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s">
         <v>204</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>205</v>
-      </c>
-      <c r="D50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" t="s">
-        <v>207</v>
       </c>
       <c r="F50">
         <v>1001</v>
@@ -3479,16 +3488,16 @@
         <v>10050</v>
       </c>
       <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" t="s">
         <v>208</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>209</v>
-      </c>
-      <c r="D51" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" t="s">
-        <v>211</v>
       </c>
       <c r="F51">
         <v>1001</v>
@@ -3511,16 +3520,16 @@
         <v>10051</v>
       </c>
       <c r="B52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" t="s">
         <v>212</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>213</v>
-      </c>
-      <c r="D52" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" t="s">
-        <v>215</v>
       </c>
       <c r="F52">
         <v>1001</v>
@@ -3543,16 +3552,16 @@
         <v>10052</v>
       </c>
       <c r="B53" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" t="s">
+        <v>326</v>
+      </c>
+      <c r="D53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" t="s">
         <v>216</v>
-      </c>
-      <c r="C53" t="s">
-        <v>332</v>
-      </c>
-      <c r="D53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E53" t="s">
-        <v>218</v>
       </c>
       <c r="F53">
         <v>1001</v>
@@ -3575,16 +3584,16 @@
         <v>10053</v>
       </c>
       <c r="B54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" t="s">
         <v>219</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>220</v>
-      </c>
-      <c r="D54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" t="s">
-        <v>222</v>
       </c>
       <c r="F54">
         <v>1001</v>
@@ -3607,16 +3616,16 @@
         <v>10054</v>
       </c>
       <c r="B55" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" t="s">
         <v>223</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>224</v>
-      </c>
-      <c r="D55" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" t="s">
-        <v>226</v>
       </c>
       <c r="F55">
         <v>1001</v>
@@ -3639,16 +3648,16 @@
         <v>10055</v>
       </c>
       <c r="B56" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" t="s">
         <v>227</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>228</v>
-      </c>
-      <c r="D56" t="s">
-        <v>229</v>
-      </c>
-      <c r="E56" t="s">
-        <v>230</v>
       </c>
       <c r="F56">
         <v>1001</v>
@@ -3671,16 +3680,16 @@
         <v>10056</v>
       </c>
       <c r="B57" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" t="s">
         <v>231</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>232</v>
-      </c>
-      <c r="D57" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" t="s">
-        <v>234</v>
       </c>
       <c r="F57">
         <v>1001</v>
@@ -3703,16 +3712,16 @@
         <v>10057</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" t="s">
         <v>235</v>
-      </c>
-      <c r="D58" t="s">
-        <v>236</v>
-      </c>
-      <c r="E58" t="s">
-        <v>237</v>
       </c>
       <c r="F58">
         <v>1001</v>
@@ -3735,16 +3744,16 @@
         <v>10058</v>
       </c>
       <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D59" t="s">
         <v>238</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>239</v>
-      </c>
-      <c r="D59" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" t="s">
-        <v>241</v>
       </c>
       <c r="F59">
         <v>1001</v>
@@ -3767,16 +3776,16 @@
         <v>10059</v>
       </c>
       <c r="B60" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C60" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F60">
         <v>1001</v>
@@ -3799,16 +3808,16 @@
         <v>10060</v>
       </c>
       <c r="B61" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C61" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F61">
         <v>1001</v>
@@ -3831,16 +3840,16 @@
         <v>10061</v>
       </c>
       <c r="B62" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C62" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F62">
         <v>1001</v>
@@ -3863,16 +3872,16 @@
         <v>10062</v>
       </c>
       <c r="B63" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F63">
         <v>1001</v>
@@ -3895,16 +3904,16 @@
         <v>10063</v>
       </c>
       <c r="B64" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C64" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F64">
         <v>1001</v>
@@ -3927,16 +3936,16 @@
         <v>10064</v>
       </c>
       <c r="B65" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D65" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F65">
         <v>1001</v>
@@ -3959,16 +3968,16 @@
         <v>10065</v>
       </c>
       <c r="B66" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F66">
         <v>1001</v>
@@ -3991,16 +4000,16 @@
         <v>10066</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C67" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E67" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F67">
         <v>1001</v>
@@ -4023,16 +4032,16 @@
         <v>10067</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="C68" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F68">
         <v>1001</v>
@@ -4055,16 +4064,16 @@
         <v>10068</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E69" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F69">
         <v>1001</v>
@@ -4087,16 +4096,16 @@
         <v>10069</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F70">
         <v>1001</v>
@@ -4119,16 +4128,16 @@
         <v>10070</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F71">
         <v>1001</v>
@@ -4151,16 +4160,16 @@
         <v>10071</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F72">
         <v>1001</v>
@@ -4183,16 +4192,16 @@
         <v>10072</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D73" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F73">
         <v>1001</v>
@@ -4215,16 +4224,16 @@
         <v>10073</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F74">
         <v>1001</v>
@@ -4247,16 +4256,16 @@
         <v>10074</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F75">
         <v>1001</v>
@@ -4279,16 +4288,16 @@
         <v>10075</v>
       </c>
       <c r="B76" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C76" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F76">
         <v>1001</v>
@@ -4311,16 +4320,16 @@
         <v>10076</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E77" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F77">
         <v>1001</v>
@@ -4343,16 +4352,16 @@
         <v>10077</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C78" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E78" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F78">
         <v>1001</v>
@@ -4375,16 +4384,16 @@
         <v>10078</v>
       </c>
       <c r="B79" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E79" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F79">
         <v>1001</v>
@@ -4407,16 +4416,16 @@
         <v>10079</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E80" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F80">
         <v>1001</v>
@@ -4439,16 +4448,16 @@
         <v>10080</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F81">
         <v>1001</v>
@@ -4471,16 +4480,16 @@
         <v>10081</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C82" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F82">
         <v>1001</v>
@@ -4503,16 +4512,16 @@
         <v>10082</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E83" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F83">
         <v>1001</v>
@@ -4535,16 +4544,16 @@
         <v>10083</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C84" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E84" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F84">
         <v>1001</v>
@@ -4567,16 +4576,16 @@
         <v>10084</v>
       </c>
       <c r="B85" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C85" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E85" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F85">
         <v>1001</v>
@@ -4599,16 +4608,16 @@
         <v>10085</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C86" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E86" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F86">
         <v>1001</v>
@@ -4631,16 +4640,16 @@
         <v>10086</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C87" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E87" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F87">
         <v>1001</v>
@@ -4663,16 +4672,16 @@
         <v>10087</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E88" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F88">
         <v>1001</v>
@@ -4695,16 +4704,16 @@
         <v>10088</v>
       </c>
       <c r="B89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F89">
         <v>1001</v>
@@ -4727,16 +4736,16 @@
         <v>10089</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D90" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E90" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F90">
         <v>1001</v>
@@ -4759,16 +4768,16 @@
         <v>10090</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C91" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E91" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F91">
         <v>1001</v>
@@ -4791,16 +4800,16 @@
         <v>10091</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F92">
         <v>1001</v>
@@ -4823,16 +4832,16 @@
         <v>10092</v>
       </c>
       <c r="B93" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C93" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E93" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F93">
         <v>1001</v>
@@ -4855,16 +4864,16 @@
         <v>10093</v>
       </c>
       <c r="B94" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E94" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F94">
         <v>1001</v>
@@ -4887,16 +4896,16 @@
         <v>10094</v>
       </c>
       <c r="B95" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F95">
         <v>1001</v>
@@ -4919,16 +4928,16 @@
         <v>10095</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E96" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F96">
         <v>1001</v>
@@ -4951,16 +4960,16 @@
         <v>10096</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D97" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E97" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F97">
         <v>1001</v>
@@ -4983,16 +4992,16 @@
         <v>10097</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C98" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D98" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F98">
         <v>1001</v>
@@ -5015,16 +5024,16 @@
         <v>10098</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D99" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E99" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F99">
         <v>1001</v>
@@ -5062,7 +5071,7 @@
         <v>1001</v>
       </c>
       <c r="G100" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
@@ -5094,7 +5103,7 @@
         <v>1001</v>
       </c>
       <c r="G101" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
@@ -5114,19 +5123,19 @@
         <v>21</v>
       </c>
       <c r="C102" t="s">
+        <v>336</v>
+      </c>
+      <c r="D102" t="s">
         <v>22</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>23</v>
       </c>
-      <c r="E102" t="s">
-        <v>24</v>
-      </c>
       <c r="F102">
         <v>1001</v>
       </c>
       <c r="G102" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -5143,22 +5152,22 @@
         <v>10004</v>
       </c>
       <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
         <v>25</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>26</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>27</v>
       </c>
-      <c r="E103" t="s">
-        <v>28</v>
-      </c>
       <c r="F103">
         <v>1001</v>
       </c>
       <c r="G103" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -5175,22 +5184,22 @@
         <v>10005</v>
       </c>
       <c r="B104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
         <v>29</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>30</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>31</v>
       </c>
-      <c r="E104" t="s">
-        <v>32</v>
-      </c>
       <c r="F104">
         <v>1001</v>
       </c>
       <c r="G104" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -5207,22 +5216,22 @@
         <v>10006</v>
       </c>
       <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
         <v>33</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>34</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>35</v>
       </c>
-      <c r="E105" t="s">
-        <v>36</v>
-      </c>
       <c r="F105">
         <v>1001</v>
       </c>
       <c r="G105" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H105" t="b">
         <v>1</v>
@@ -5239,22 +5248,22 @@
         <v>10007</v>
       </c>
       <c r="B106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" t="s">
         <v>37</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>38</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>39</v>
       </c>
-      <c r="E106" t="s">
-        <v>40</v>
-      </c>
       <c r="F106">
         <v>1001</v>
       </c>
       <c r="G106" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
@@ -5271,22 +5280,22 @@
         <v>10008</v>
       </c>
       <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" t="s">
         <v>41</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>42</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>43</v>
       </c>
-      <c r="E107" t="s">
-        <v>44</v>
-      </c>
       <c r="F107">
         <v>1001</v>
       </c>
       <c r="G107" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H107" t="b">
         <v>1</v>
@@ -5303,22 +5312,22 @@
         <v>10009</v>
       </c>
       <c r="B108" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" t="s">
         <v>45</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>46</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>47</v>
       </c>
-      <c r="E108" t="s">
-        <v>48</v>
-      </c>
       <c r="F108">
         <v>1001</v>
       </c>
       <c r="G108" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H108" t="b">
         <v>1</v>
@@ -5335,22 +5344,22 @@
         <v>10010</v>
       </c>
       <c r="B109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" t="s">
         <v>49</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>50</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>51</v>
       </c>
-      <c r="E109" t="s">
-        <v>52</v>
-      </c>
       <c r="F109">
         <v>1001</v>
       </c>
       <c r="G109" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H109" t="b">
         <v>1</v>
@@ -5367,22 +5376,22 @@
         <v>10011</v>
       </c>
       <c r="B110" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" t="s">
         <v>53</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>54</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>55</v>
       </c>
-      <c r="E110" t="s">
-        <v>56</v>
-      </c>
       <c r="F110">
         <v>1001</v>
       </c>
       <c r="G110" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H110" t="b">
         <v>1</v>
@@ -5399,22 +5408,22 @@
         <v>10012</v>
       </c>
       <c r="B111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" t="s">
         <v>57</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>58</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>59</v>
       </c>
-      <c r="E111" t="s">
-        <v>60</v>
-      </c>
       <c r="F111">
         <v>1001</v>
       </c>
       <c r="G111" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H111" t="b">
         <v>1</v>
@@ -5431,22 +5440,22 @@
         <v>10013</v>
       </c>
       <c r="B112" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" t="s">
         <v>61</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>62</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>63</v>
       </c>
-      <c r="E112" t="s">
-        <v>64</v>
-      </c>
       <c r="F112">
         <v>1001</v>
       </c>
       <c r="G112" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H112" t="b">
         <v>1</v>
@@ -5463,22 +5472,22 @@
         <v>10014</v>
       </c>
       <c r="B113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
         <v>65</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>66</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>67</v>
       </c>
-      <c r="E113" t="s">
-        <v>68</v>
-      </c>
       <c r="F113">
         <v>1001</v>
       </c>
       <c r="G113" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H113" t="b">
         <v>1</v>
@@ -5495,22 +5504,22 @@
         <v>10015</v>
       </c>
       <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" t="s">
         <v>69</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>70</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>71</v>
       </c>
-      <c r="E114" t="s">
-        <v>72</v>
-      </c>
       <c r="F114">
         <v>1001</v>
       </c>
       <c r="G114" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
@@ -5527,22 +5536,22 @@
         <v>10016</v>
       </c>
       <c r="B115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" t="s">
         <v>73</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>74</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>75</v>
       </c>
-      <c r="E115" t="s">
-        <v>76</v>
-      </c>
       <c r="F115">
         <v>1001</v>
       </c>
       <c r="G115" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H115" t="b">
         <v>1</v>
@@ -5559,22 +5568,22 @@
         <v>10017</v>
       </c>
       <c r="B116" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" t="s">
         <v>77</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>78</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>79</v>
       </c>
-      <c r="E116" t="s">
-        <v>80</v>
-      </c>
       <c r="F116">
         <v>1001</v>
       </c>
       <c r="G116" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -5591,22 +5600,22 @@
         <v>10018</v>
       </c>
       <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117" t="s">
         <v>81</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>82</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>83</v>
       </c>
-      <c r="E117" t="s">
-        <v>84</v>
-      </c>
       <c r="F117">
         <v>1001</v>
       </c>
       <c r="G117" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
@@ -5623,22 +5632,22 @@
         <v>10019</v>
       </c>
       <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
         <v>85</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>86</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>87</v>
       </c>
-      <c r="E118" t="s">
-        <v>88</v>
-      </c>
       <c r="F118">
         <v>1001</v>
       </c>
       <c r="G118" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
@@ -5655,22 +5664,22 @@
         <v>10020</v>
       </c>
       <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C119" t="s">
         <v>89</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>90</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>91</v>
       </c>
-      <c r="E119" t="s">
-        <v>92</v>
-      </c>
       <c r="F119">
         <v>1001</v>
       </c>
       <c r="G119" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -5687,22 +5696,22 @@
         <v>10021</v>
       </c>
       <c r="B120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" t="s">
         <v>93</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>94</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>95</v>
       </c>
-      <c r="E120" t="s">
-        <v>96</v>
-      </c>
       <c r="F120">
         <v>1001</v>
       </c>
       <c r="G120" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H120" t="b">
         <v>1</v>
@@ -5719,22 +5728,22 @@
         <v>10022</v>
       </c>
       <c r="B121" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" t="s">
         <v>97</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>98</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>99</v>
       </c>
-      <c r="E121" t="s">
-        <v>100</v>
-      </c>
       <c r="F121">
         <v>1001</v>
       </c>
       <c r="G121" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H121" t="b">
         <v>1</v>
@@ -5751,22 +5760,22 @@
         <v>10023</v>
       </c>
       <c r="B122" t="s">
+        <v>100</v>
+      </c>
+      <c r="C122" t="s">
         <v>101</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>102</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>103</v>
       </c>
-      <c r="E122" t="s">
-        <v>104</v>
-      </c>
       <c r="F122">
         <v>1001</v>
       </c>
       <c r="G122" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H122" t="b">
         <v>1</v>
@@ -5783,22 +5792,22 @@
         <v>10024</v>
       </c>
       <c r="B123" t="s">
+        <v>104</v>
+      </c>
+      <c r="C123" t="s">
         <v>105</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>106</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>107</v>
       </c>
-      <c r="E123" t="s">
-        <v>108</v>
-      </c>
       <c r="F123">
         <v>1001</v>
       </c>
       <c r="G123" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H123" t="b">
         <v>1</v>
@@ -5815,22 +5824,22 @@
         <v>10025</v>
       </c>
       <c r="B124" t="s">
+        <v>108</v>
+      </c>
+      <c r="C124" t="s">
         <v>109</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>110</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>111</v>
       </c>
-      <c r="E124" t="s">
-        <v>112</v>
-      </c>
       <c r="F124">
         <v>1001</v>
       </c>
       <c r="G124" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H124" t="b">
         <v>1</v>
@@ -5847,22 +5856,22 @@
         <v>10026</v>
       </c>
       <c r="B125" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" t="s">
         <v>113</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>114</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>115</v>
       </c>
-      <c r="E125" t="s">
-        <v>116</v>
-      </c>
       <c r="F125">
         <v>1001</v>
       </c>
       <c r="G125" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
@@ -5879,22 +5888,22 @@
         <v>10027</v>
       </c>
       <c r="B126" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" t="s">
         <v>117</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>118</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>119</v>
       </c>
-      <c r="E126" t="s">
-        <v>120</v>
-      </c>
       <c r="F126">
         <v>1001</v>
       </c>
       <c r="G126" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
@@ -5911,22 +5920,22 @@
         <v>10028</v>
       </c>
       <c r="B127" t="s">
+        <v>120</v>
+      </c>
+      <c r="C127" t="s">
         <v>121</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>122</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>123</v>
       </c>
-      <c r="E127" t="s">
-        <v>124</v>
-      </c>
       <c r="F127">
         <v>1001</v>
       </c>
       <c r="G127" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H127" t="b">
         <v>1</v>
@@ -5943,22 +5952,22 @@
         <v>10029</v>
       </c>
       <c r="B128" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128" t="s">
         <v>125</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>126</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>127</v>
       </c>
-      <c r="E128" t="s">
-        <v>128</v>
-      </c>
       <c r="F128">
         <v>1001</v>
       </c>
       <c r="G128" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H128" t="b">
         <v>1</v>
@@ -5975,22 +5984,22 @@
         <v>10030</v>
       </c>
       <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
         <v>129</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>130</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>131</v>
       </c>
-      <c r="E129" t="s">
-        <v>132</v>
-      </c>
       <c r="F129">
         <v>1001</v>
       </c>
       <c r="G129" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H129" t="b">
         <v>1</v>
@@ -6007,22 +6016,22 @@
         <v>10031</v>
       </c>
       <c r="B130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
         <v>133</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>134</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>135</v>
       </c>
-      <c r="E130" t="s">
-        <v>136</v>
-      </c>
       <c r="F130">
         <v>1001</v>
       </c>
       <c r="G130" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H130" t="b">
         <v>1</v>
@@ -6039,22 +6048,22 @@
         <v>10032</v>
       </c>
       <c r="B131" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" t="s">
         <v>137</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>138</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>139</v>
       </c>
-      <c r="E131" t="s">
-        <v>140</v>
-      </c>
       <c r="F131">
         <v>1001</v>
       </c>
       <c r="G131" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
@@ -6071,22 +6080,22 @@
         <v>10033</v>
       </c>
       <c r="B132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" t="s">
         <v>141</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>142</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>143</v>
       </c>
-      <c r="E132" t="s">
-        <v>144</v>
-      </c>
       <c r="F132">
         <v>1001</v>
       </c>
       <c r="G132" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H132" t="b">
         <v>1</v>
@@ -6103,22 +6112,22 @@
         <v>10034</v>
       </c>
       <c r="B133" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" t="s">
         <v>145</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>146</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>147</v>
       </c>
-      <c r="E133" t="s">
-        <v>148</v>
-      </c>
       <c r="F133">
         <v>1001</v>
       </c>
       <c r="G133" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H133" t="b">
         <v>1</v>
@@ -6135,22 +6144,22 @@
         <v>10035</v>
       </c>
       <c r="B134" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134" t="s">
         <v>149</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>150</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>151</v>
       </c>
-      <c r="E134" t="s">
-        <v>152</v>
-      </c>
       <c r="F134">
         <v>1001</v>
       </c>
       <c r="G134" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H134" t="b">
         <v>1</v>
@@ -6167,22 +6176,22 @@
         <v>10036</v>
       </c>
       <c r="B135" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" t="s">
         <v>153</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>154</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>155</v>
       </c>
-      <c r="E135" t="s">
-        <v>156</v>
-      </c>
       <c r="F135">
         <v>1001</v>
       </c>
       <c r="G135" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H135" t="b">
         <v>1</v>
@@ -6199,22 +6208,22 @@
         <v>10037</v>
       </c>
       <c r="B136" t="s">
+        <v>156</v>
+      </c>
+      <c r="C136" t="s">
         <v>157</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>158</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>159</v>
       </c>
-      <c r="E136" t="s">
-        <v>160</v>
-      </c>
       <c r="F136">
         <v>1001</v>
       </c>
       <c r="G136" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H136" t="b">
         <v>1</v>
@@ -6231,22 +6240,22 @@
         <v>10038</v>
       </c>
       <c r="B137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" t="s">
         <v>161</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>162</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>163</v>
       </c>
-      <c r="E137" t="s">
-        <v>164</v>
-      </c>
       <c r="F137">
         <v>1001</v>
       </c>
       <c r="G137" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H137" t="b">
         <v>1</v>
@@ -6263,22 +6272,22 @@
         <v>10039</v>
       </c>
       <c r="B138" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" t="s">
+        <v>328</v>
+      </c>
+      <c r="D138" t="s">
         <v>165</v>
       </c>
-      <c r="C138" t="s">
+      <c r="E138" t="s">
         <v>166</v>
       </c>
-      <c r="D138" t="s">
-        <v>167</v>
-      </c>
-      <c r="E138" t="s">
-        <v>168</v>
-      </c>
       <c r="F138">
         <v>1001</v>
       </c>
       <c r="G138" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H138" t="b">
         <v>1</v>
@@ -6295,22 +6304,22 @@
         <v>10040</v>
       </c>
       <c r="B139" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139" t="s">
         <v>169</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E139" t="s">
         <v>170</v>
       </c>
-      <c r="D139" t="s">
-        <v>171</v>
-      </c>
-      <c r="E139" t="s">
-        <v>172</v>
-      </c>
       <c r="F139">
         <v>1001</v>
       </c>
       <c r="G139" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H139" t="b">
         <v>1</v>
@@ -6327,22 +6336,22 @@
         <v>10041</v>
       </c>
       <c r="B140" t="s">
+        <v>171</v>
+      </c>
+      <c r="C140" t="s">
+        <v>172</v>
+      </c>
+      <c r="D140" t="s">
         <v>173</v>
       </c>
-      <c r="C140" t="s">
+      <c r="E140" t="s">
         <v>174</v>
       </c>
-      <c r="D140" t="s">
-        <v>175</v>
-      </c>
-      <c r="E140" t="s">
-        <v>176</v>
-      </c>
       <c r="F140">
         <v>1001</v>
       </c>
       <c r="G140" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H140" t="b">
         <v>1</v>
@@ -6359,22 +6368,22 @@
         <v>10042</v>
       </c>
       <c r="B141" t="s">
+        <v>175</v>
+      </c>
+      <c r="C141" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141" t="s">
         <v>177</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E141" t="s">
         <v>178</v>
       </c>
-      <c r="D141" t="s">
-        <v>179</v>
-      </c>
-      <c r="E141" t="s">
-        <v>180</v>
-      </c>
       <c r="F141">
         <v>1001</v>
       </c>
       <c r="G141" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H141" t="b">
         <v>1</v>
@@ -6391,22 +6400,22 @@
         <v>10043</v>
       </c>
       <c r="B142" t="s">
+        <v>179</v>
+      </c>
+      <c r="C142" t="s">
+        <v>327</v>
+      </c>
+      <c r="D142" t="s">
+        <v>180</v>
+      </c>
+      <c r="E142" t="s">
         <v>181</v>
       </c>
-      <c r="C142" t="s">
-        <v>333</v>
-      </c>
-      <c r="D142" t="s">
-        <v>182</v>
-      </c>
-      <c r="E142" t="s">
-        <v>183</v>
-      </c>
       <c r="F142">
         <v>1001</v>
       </c>
       <c r="G142" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H142" t="b">
         <v>1</v>
@@ -6423,22 +6432,22 @@
         <v>10044</v>
       </c>
       <c r="B143" t="s">
+        <v>182</v>
+      </c>
+      <c r="C143" t="s">
+        <v>183</v>
+      </c>
+      <c r="D143" t="s">
         <v>184</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E143" t="s">
         <v>185</v>
       </c>
-      <c r="D143" t="s">
-        <v>186</v>
-      </c>
-      <c r="E143" t="s">
-        <v>187</v>
-      </c>
       <c r="F143">
         <v>1001</v>
       </c>
       <c r="G143" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H143" t="b">
         <v>1</v>
@@ -6455,22 +6464,22 @@
         <v>10045</v>
       </c>
       <c r="B144" t="s">
+        <v>186</v>
+      </c>
+      <c r="C144" t="s">
+        <v>187</v>
+      </c>
+      <c r="D144" t="s">
         <v>188</v>
       </c>
-      <c r="C144" t="s">
+      <c r="E144" t="s">
         <v>189</v>
       </c>
-      <c r="D144" t="s">
-        <v>190</v>
-      </c>
-      <c r="E144" t="s">
-        <v>191</v>
-      </c>
       <c r="F144">
         <v>1001</v>
       </c>
       <c r="G144" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H144" t="b">
         <v>1</v>
@@ -6487,22 +6496,22 @@
         <v>10046</v>
       </c>
       <c r="B145" t="s">
+        <v>190</v>
+      </c>
+      <c r="C145" t="s">
+        <v>191</v>
+      </c>
+      <c r="D145" t="s">
         <v>192</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E145" t="s">
         <v>193</v>
       </c>
-      <c r="D145" t="s">
-        <v>194</v>
-      </c>
-      <c r="E145" t="s">
-        <v>195</v>
-      </c>
       <c r="F145">
         <v>1001</v>
       </c>
       <c r="G145" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H145" t="b">
         <v>1</v>
@@ -6519,22 +6528,22 @@
         <v>10047</v>
       </c>
       <c r="B146" t="s">
+        <v>194</v>
+      </c>
+      <c r="C146" t="s">
+        <v>195</v>
+      </c>
+      <c r="D146" t="s">
         <v>196</v>
       </c>
-      <c r="C146" t="s">
+      <c r="E146" t="s">
         <v>197</v>
       </c>
-      <c r="D146" t="s">
-        <v>198</v>
-      </c>
-      <c r="E146" t="s">
-        <v>199</v>
-      </c>
       <c r="F146">
         <v>1001</v>
       </c>
       <c r="G146" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H146" t="b">
         <v>1</v>
@@ -6551,22 +6560,22 @@
         <v>10048</v>
       </c>
       <c r="B147" t="s">
+        <v>198</v>
+      </c>
+      <c r="C147" t="s">
+        <v>199</v>
+      </c>
+      <c r="D147" t="s">
         <v>200</v>
       </c>
-      <c r="C147" t="s">
+      <c r="E147" t="s">
         <v>201</v>
       </c>
-      <c r="D147" t="s">
-        <v>202</v>
-      </c>
-      <c r="E147" t="s">
-        <v>203</v>
-      </c>
       <c r="F147">
         <v>1001</v>
       </c>
       <c r="G147" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H147" t="b">
         <v>1</v>
@@ -6583,22 +6592,22 @@
         <v>10049</v>
       </c>
       <c r="B148" t="s">
+        <v>202</v>
+      </c>
+      <c r="C148" t="s">
+        <v>203</v>
+      </c>
+      <c r="D148" t="s">
         <v>204</v>
       </c>
-      <c r="C148" t="s">
+      <c r="E148" t="s">
         <v>205</v>
       </c>
-      <c r="D148" t="s">
-        <v>206</v>
-      </c>
-      <c r="E148" t="s">
-        <v>207</v>
-      </c>
       <c r="F148">
         <v>1001</v>
       </c>
       <c r="G148" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H148" t="b">
         <v>1</v>
@@ -6615,22 +6624,22 @@
         <v>10050</v>
       </c>
       <c r="B149" t="s">
+        <v>206</v>
+      </c>
+      <c r="C149" t="s">
+        <v>207</v>
+      </c>
+      <c r="D149" t="s">
         <v>208</v>
       </c>
-      <c r="C149" t="s">
+      <c r="E149" t="s">
         <v>209</v>
       </c>
-      <c r="D149" t="s">
-        <v>210</v>
-      </c>
-      <c r="E149" t="s">
-        <v>211</v>
-      </c>
       <c r="F149">
         <v>1001</v>
       </c>
       <c r="G149" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H149" t="b">
         <v>1</v>
@@ -6647,22 +6656,22 @@
         <v>10051</v>
       </c>
       <c r="B150" t="s">
+        <v>210</v>
+      </c>
+      <c r="C150" t="s">
+        <v>211</v>
+      </c>
+      <c r="D150" t="s">
         <v>212</v>
       </c>
-      <c r="C150" t="s">
+      <c r="E150" t="s">
         <v>213</v>
       </c>
-      <c r="D150" t="s">
-        <v>214</v>
-      </c>
-      <c r="E150" t="s">
-        <v>215</v>
-      </c>
       <c r="F150">
         <v>1001</v>
       </c>
       <c r="G150" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H150" t="b">
         <v>1</v>
@@ -6679,22 +6688,22 @@
         <v>10052</v>
       </c>
       <c r="B151" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151" t="s">
+        <v>326</v>
+      </c>
+      <c r="D151" t="s">
+        <v>215</v>
+      </c>
+      <c r="E151" t="s">
         <v>216</v>
       </c>
-      <c r="C151" t="s">
-        <v>332</v>
-      </c>
-      <c r="D151" t="s">
-        <v>217</v>
-      </c>
-      <c r="E151" t="s">
-        <v>218</v>
-      </c>
       <c r="F151">
         <v>1001</v>
       </c>
       <c r="G151" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H151" t="b">
         <v>1</v>
@@ -6711,22 +6720,22 @@
         <v>10053</v>
       </c>
       <c r="B152" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" t="s">
+        <v>218</v>
+      </c>
+      <c r="D152" t="s">
         <v>219</v>
       </c>
-      <c r="C152" t="s">
+      <c r="E152" t="s">
         <v>220</v>
       </c>
-      <c r="D152" t="s">
-        <v>221</v>
-      </c>
-      <c r="E152" t="s">
-        <v>222</v>
-      </c>
       <c r="F152">
         <v>1001</v>
       </c>
       <c r="G152" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H152" t="b">
         <v>1</v>
@@ -6743,22 +6752,22 @@
         <v>10054</v>
       </c>
       <c r="B153" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" t="s">
+        <v>222</v>
+      </c>
+      <c r="D153" t="s">
         <v>223</v>
       </c>
-      <c r="C153" t="s">
+      <c r="E153" t="s">
         <v>224</v>
       </c>
-      <c r="D153" t="s">
-        <v>225</v>
-      </c>
-      <c r="E153" t="s">
-        <v>226</v>
-      </c>
       <c r="F153">
         <v>1001</v>
       </c>
       <c r="G153" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H153" t="b">
         <v>1</v>
@@ -6775,22 +6784,22 @@
         <v>10055</v>
       </c>
       <c r="B154" t="s">
+        <v>225</v>
+      </c>
+      <c r="C154" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" t="s">
         <v>227</v>
       </c>
-      <c r="C154" t="s">
+      <c r="E154" t="s">
         <v>228</v>
       </c>
-      <c r="D154" t="s">
-        <v>229</v>
-      </c>
-      <c r="E154" t="s">
-        <v>230</v>
-      </c>
       <c r="F154">
         <v>1001</v>
       </c>
       <c r="G154" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H154" t="b">
         <v>1</v>
@@ -6807,22 +6816,22 @@
         <v>10056</v>
       </c>
       <c r="B155" t="s">
+        <v>229</v>
+      </c>
+      <c r="C155" t="s">
+        <v>230</v>
+      </c>
+      <c r="D155" t="s">
         <v>231</v>
       </c>
-      <c r="C155" t="s">
+      <c r="E155" t="s">
         <v>232</v>
       </c>
-      <c r="D155" t="s">
-        <v>233</v>
-      </c>
-      <c r="E155" t="s">
-        <v>234</v>
-      </c>
       <c r="F155">
         <v>1001</v>
       </c>
       <c r="G155" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
@@ -6839,22 +6848,22 @@
         <v>10057</v>
       </c>
       <c r="B156" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C156" t="s">
+        <v>233</v>
+      </c>
+      <c r="D156" t="s">
+        <v>234</v>
+      </c>
+      <c r="E156" t="s">
         <v>235</v>
       </c>
-      <c r="D156" t="s">
-        <v>236</v>
-      </c>
-      <c r="E156" t="s">
-        <v>237</v>
-      </c>
       <c r="F156">
         <v>1001</v>
       </c>
       <c r="G156" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H156" t="b">
         <v>1</v>
@@ -6871,22 +6880,22 @@
         <v>10058</v>
       </c>
       <c r="B157" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" t="s">
+        <v>237</v>
+      </c>
+      <c r="D157" t="s">
         <v>238</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157" t="s">
         <v>239</v>
       </c>
-      <c r="D157" t="s">
-        <v>240</v>
-      </c>
-      <c r="E157" t="s">
-        <v>241</v>
-      </c>
       <c r="F157">
         <v>1001</v>
       </c>
       <c r="G157" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H157" t="b">
         <v>1</v>
@@ -6903,22 +6912,22 @@
         <v>10059</v>
       </c>
       <c r="B158" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C158" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D158" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E158" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F158">
         <v>1001</v>
       </c>
       <c r="G158" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H158" t="b">
         <v>1</v>
@@ -6935,22 +6944,22 @@
         <v>10060</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C159" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D159" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E159" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F159">
         <v>1001</v>
       </c>
       <c r="G159" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H159" t="b">
         <v>1</v>
@@ -6967,22 +6976,22 @@
         <v>10061</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C160" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D160" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E160" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F160">
         <v>1001</v>
       </c>
       <c r="G160" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H160" t="b">
         <v>1</v>
@@ -6999,22 +7008,22 @@
         <v>10062</v>
       </c>
       <c r="B161" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D161" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E161" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F161">
         <v>1001</v>
       </c>
       <c r="G161" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H161" t="b">
         <v>1</v>
@@ -7031,22 +7040,22 @@
         <v>10063</v>
       </c>
       <c r="B162" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C162" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D162" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E162" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F162">
         <v>1001</v>
       </c>
       <c r="G162" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H162" t="b">
         <v>1</v>
@@ -7063,22 +7072,22 @@
         <v>10064</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C163" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D163" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E163" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F163">
         <v>1001</v>
       </c>
       <c r="G163" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H163" t="b">
         <v>1</v>
@@ -7095,22 +7104,22 @@
         <v>10065</v>
       </c>
       <c r="B164" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C164" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D164" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E164" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F164">
         <v>1001</v>
       </c>
       <c r="G164" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H164" t="b">
         <v>1</v>
@@ -7127,22 +7136,22 @@
         <v>10066</v>
       </c>
       <c r="B165" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C165" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D165" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E165" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F165">
         <v>1001</v>
       </c>
       <c r="G165" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H165" t="b">
         <v>1</v>
@@ -7159,22 +7168,22 @@
         <v>10067</v>
       </c>
       <c r="B166" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="C166" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="D166" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E166" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F166">
         <v>1001</v>
       </c>
       <c r="G166" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H166" t="b">
         <v>1</v>
@@ -7191,22 +7200,22 @@
         <v>10068</v>
       </c>
       <c r="B167" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="D167" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E167" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F167">
         <v>1001</v>
       </c>
       <c r="G167" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H167" t="b">
         <v>1</v>
@@ -7223,22 +7232,22 @@
         <v>10069</v>
       </c>
       <c r="B168" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="C168" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="D168" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E168" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F168">
         <v>1001</v>
       </c>
       <c r="G168" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H168" t="b">
         <v>1</v>
@@ -7255,22 +7264,22 @@
         <v>10070</v>
       </c>
       <c r="B169" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C169" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D169" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E169" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F169">
         <v>1001</v>
       </c>
       <c r="G169" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H169" t="b">
         <v>1</v>
@@ -7287,22 +7296,22 @@
         <v>10071</v>
       </c>
       <c r="B170" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C170" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D170" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E170" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F170">
         <v>1001</v>
       </c>
       <c r="G170" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H170" t="b">
         <v>1</v>
@@ -7319,22 +7328,22 @@
         <v>10072</v>
       </c>
       <c r="B171" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C171" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D171" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E171" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F171">
         <v>1001</v>
       </c>
       <c r="G171" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H171" t="b">
         <v>1</v>
@@ -7351,22 +7360,22 @@
         <v>10073</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C172" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D172" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E172" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F172">
         <v>1001</v>
       </c>
       <c r="G172" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H172" t="b">
         <v>1</v>
@@ -7383,22 +7392,22 @@
         <v>10074</v>
       </c>
       <c r="B173" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C173" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D173" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E173" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F173">
         <v>1001</v>
       </c>
       <c r="G173" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H173" t="b">
         <v>1</v>
@@ -7415,22 +7424,22 @@
         <v>10075</v>
       </c>
       <c r="B174" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C174" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D174" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E174" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F174">
         <v>1001</v>
       </c>
       <c r="G174" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H174" t="b">
         <v>1</v>
@@ -7447,22 +7456,22 @@
         <v>10076</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C175" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D175" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E175" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F175">
         <v>1001</v>
       </c>
       <c r="G175" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H175" t="b">
         <v>1</v>
@@ -7479,22 +7488,22 @@
         <v>10077</v>
       </c>
       <c r="B176" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C176" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D176" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E176" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F176">
         <v>1001</v>
       </c>
       <c r="G176" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H176" t="b">
         <v>1</v>
@@ -7511,22 +7520,22 @@
         <v>10078</v>
       </c>
       <c r="B177" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C177" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D177" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E177" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F177">
         <v>1001</v>
       </c>
       <c r="G177" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H177" t="b">
         <v>1</v>
@@ -7543,22 +7552,22 @@
         <v>10079</v>
       </c>
       <c r="B178" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C178" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D178" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E178" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F178">
         <v>1001</v>
       </c>
       <c r="G178" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H178" t="b">
         <v>1</v>
@@ -7575,22 +7584,22 @@
         <v>10080</v>
       </c>
       <c r="B179" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C179" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D179" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E179" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F179">
         <v>1001</v>
       </c>
       <c r="G179" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H179" t="b">
         <v>1</v>
@@ -7607,22 +7616,22 @@
         <v>10081</v>
       </c>
       <c r="B180" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C180" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D180" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E180" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F180">
         <v>1001</v>
       </c>
       <c r="G180" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H180" t="b">
         <v>1</v>
@@ -7639,22 +7648,22 @@
         <v>10082</v>
       </c>
       <c r="B181" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C181" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D181" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E181" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F181">
         <v>1001</v>
       </c>
       <c r="G181" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H181" t="b">
         <v>1</v>
@@ -7671,22 +7680,22 @@
         <v>10083</v>
       </c>
       <c r="B182" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C182" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D182" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E182" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F182">
         <v>1001</v>
       </c>
       <c r="G182" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H182" t="b">
         <v>1</v>
@@ -7703,22 +7712,22 @@
         <v>10084</v>
       </c>
       <c r="B183" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C183" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D183" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E183" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F183">
         <v>1001</v>
       </c>
       <c r="G183" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H183" t="b">
         <v>1</v>
@@ -7735,22 +7744,22 @@
         <v>10085</v>
       </c>
       <c r="B184" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C184" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D184" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E184" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F184">
         <v>1001</v>
       </c>
       <c r="G184" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H184" t="b">
         <v>1</v>
@@ -7767,22 +7776,22 @@
         <v>10086</v>
       </c>
       <c r="B185" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C185" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D185" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E185" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F185">
         <v>1001</v>
       </c>
       <c r="G185" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H185" t="b">
         <v>1</v>
@@ -7799,22 +7808,22 @@
         <v>10087</v>
       </c>
       <c r="B186" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C186" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D186" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E186" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F186">
         <v>1001</v>
       </c>
       <c r="G186" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H186" t="b">
         <v>1</v>
@@ -7831,22 +7840,22 @@
         <v>10088</v>
       </c>
       <c r="B187" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C187" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D187" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E187" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F187">
         <v>1001</v>
       </c>
       <c r="G187" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H187" t="b">
         <v>1</v>
@@ -7863,22 +7872,22 @@
         <v>10089</v>
       </c>
       <c r="B188" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C188" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D188" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E188" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F188">
         <v>1001</v>
       </c>
       <c r="G188" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H188" t="b">
         <v>1</v>
@@ -7895,22 +7904,22 @@
         <v>10090</v>
       </c>
       <c r="B189" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C189" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D189" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E189" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F189">
         <v>1001</v>
       </c>
       <c r="G189" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H189" t="b">
         <v>1</v>
@@ -7927,22 +7936,22 @@
         <v>10091</v>
       </c>
       <c r="B190" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C190" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D190" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E190" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F190">
         <v>1001</v>
       </c>
       <c r="G190" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H190" t="b">
         <v>1</v>
@@ -7959,22 +7968,22 @@
         <v>10092</v>
       </c>
       <c r="B191" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C191" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D191" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E191" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F191">
         <v>1001</v>
       </c>
       <c r="G191" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H191" t="b">
         <v>1</v>
@@ -7991,22 +8000,22 @@
         <v>10093</v>
       </c>
       <c r="B192" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C192" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D192" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E192" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F192">
         <v>1001</v>
       </c>
       <c r="G192" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H192" t="b">
         <v>1</v>
@@ -8023,22 +8032,22 @@
         <v>10094</v>
       </c>
       <c r="B193" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C193" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D193" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E193" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F193">
         <v>1001</v>
       </c>
       <c r="G193" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H193" t="b">
         <v>1</v>
@@ -8055,22 +8064,22 @@
         <v>10095</v>
       </c>
       <c r="B194" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C194" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D194" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E194" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F194">
         <v>1001</v>
       </c>
       <c r="G194" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H194" t="b">
         <v>1</v>
@@ -8087,22 +8096,22 @@
         <v>10096</v>
       </c>
       <c r="B195" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C195" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D195" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E195" t="s">
+        <v>305</v>
+      </c>
+      <c r="F195">
+        <v>1001</v>
+      </c>
+      <c r="G195" t="s">
         <v>310</v>
-      </c>
-      <c r="F195">
-        <v>1001</v>
-      </c>
-      <c r="G195" t="s">
-        <v>315</v>
       </c>
       <c r="H195" t="b">
         <v>1</v>
@@ -8119,22 +8128,22 @@
         <v>10097</v>
       </c>
       <c r="B196" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C196" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D196" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E196" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F196">
         <v>1001</v>
       </c>
       <c r="G196" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H196" t="b">
         <v>1</v>
@@ -8151,22 +8160,22 @@
         <v>10098</v>
       </c>
       <c r="B197" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C197" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D197" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E197" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F197">
         <v>1001</v>
       </c>
       <c r="G197" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H197" t="b">
         <v>1</v>
@@ -8198,7 +8207,7 @@
         <v>1001</v>
       </c>
       <c r="G198" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H198" t="b">
         <v>1</v>
@@ -8230,7 +8239,7 @@
         <v>1001</v>
       </c>
       <c r="G199" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H199" t="b">
         <v>1</v>
@@ -8250,19 +8259,19 @@
         <v>21</v>
       </c>
       <c r="C200" t="s">
+        <v>336</v>
+      </c>
+      <c r="D200" t="s">
         <v>22</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>23</v>
       </c>
-      <c r="E200" t="s">
-        <v>24</v>
-      </c>
       <c r="F200">
         <v>1001</v>
       </c>
       <c r="G200" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H200" t="b">
         <v>1</v>
@@ -8279,22 +8288,22 @@
         <v>10004</v>
       </c>
       <c r="B201" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" t="s">
         <v>25</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>26</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>27</v>
       </c>
-      <c r="E201" t="s">
-        <v>28</v>
-      </c>
       <c r="F201">
         <v>1001</v>
       </c>
       <c r="G201" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H201" t="b">
         <v>1</v>
@@ -8311,22 +8320,22 @@
         <v>10005</v>
       </c>
       <c r="B202" t="s">
+        <v>28</v>
+      </c>
+      <c r="C202" t="s">
         <v>29</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>30</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>31</v>
       </c>
-      <c r="E202" t="s">
-        <v>32</v>
-      </c>
       <c r="F202">
         <v>1001</v>
       </c>
       <c r="G202" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H202" t="b">
         <v>1</v>
@@ -8343,22 +8352,22 @@
         <v>10006</v>
       </c>
       <c r="B203" t="s">
+        <v>32</v>
+      </c>
+      <c r="C203" t="s">
         <v>33</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>34</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>35</v>
       </c>
-      <c r="E203" t="s">
-        <v>36</v>
-      </c>
       <c r="F203">
         <v>1001</v>
       </c>
       <c r="G203" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H203" t="b">
         <v>1</v>
@@ -8375,22 +8384,22 @@
         <v>10007</v>
       </c>
       <c r="B204" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204" t="s">
         <v>37</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>38</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>39</v>
       </c>
-      <c r="E204" t="s">
-        <v>40</v>
-      </c>
       <c r="F204">
         <v>1001</v>
       </c>
       <c r="G204" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H204" t="b">
         <v>1</v>
@@ -8407,22 +8416,22 @@
         <v>10008</v>
       </c>
       <c r="B205" t="s">
+        <v>40</v>
+      </c>
+      <c r="C205" t="s">
         <v>41</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>42</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>43</v>
       </c>
-      <c r="E205" t="s">
-        <v>44</v>
-      </c>
       <c r="F205">
         <v>1001</v>
       </c>
       <c r="G205" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H205" t="b">
         <v>1</v>
@@ -8439,22 +8448,22 @@
         <v>10009</v>
       </c>
       <c r="B206" t="s">
+        <v>44</v>
+      </c>
+      <c r="C206" t="s">
         <v>45</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>46</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>47</v>
       </c>
-      <c r="E206" t="s">
-        <v>48</v>
-      </c>
       <c r="F206">
         <v>1001</v>
       </c>
       <c r="G206" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H206" t="b">
         <v>1</v>
@@ -8471,22 +8480,22 @@
         <v>10010</v>
       </c>
       <c r="B207" t="s">
+        <v>48</v>
+      </c>
+      <c r="C207" t="s">
         <v>49</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>50</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>51</v>
       </c>
-      <c r="E207" t="s">
-        <v>52</v>
-      </c>
       <c r="F207">
         <v>1001</v>
       </c>
       <c r="G207" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H207" t="b">
         <v>1</v>
@@ -8503,22 +8512,22 @@
         <v>10011</v>
       </c>
       <c r="B208" t="s">
+        <v>52</v>
+      </c>
+      <c r="C208" t="s">
         <v>53</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>54</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>55</v>
       </c>
-      <c r="E208" t="s">
-        <v>56</v>
-      </c>
       <c r="F208">
         <v>1001</v>
       </c>
       <c r="G208" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H208" t="b">
         <v>1</v>
@@ -8535,22 +8544,22 @@
         <v>10012</v>
       </c>
       <c r="B209" t="s">
+        <v>56</v>
+      </c>
+      <c r="C209" t="s">
         <v>57</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>58</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>59</v>
       </c>
-      <c r="E209" t="s">
-        <v>60</v>
-      </c>
       <c r="F209">
         <v>1001</v>
       </c>
       <c r="G209" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H209" t="b">
         <v>1</v>
@@ -8567,22 +8576,22 @@
         <v>10013</v>
       </c>
       <c r="B210" t="s">
+        <v>60</v>
+      </c>
+      <c r="C210" t="s">
         <v>61</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>62</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>63</v>
       </c>
-      <c r="E210" t="s">
-        <v>64</v>
-      </c>
       <c r="F210">
         <v>1001</v>
       </c>
       <c r="G210" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H210" t="b">
         <v>1</v>
@@ -8599,22 +8608,22 @@
         <v>10014</v>
       </c>
       <c r="B211" t="s">
+        <v>64</v>
+      </c>
+      <c r="C211" t="s">
         <v>65</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>66</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>67</v>
       </c>
-      <c r="E211" t="s">
-        <v>68</v>
-      </c>
       <c r="F211">
         <v>1001</v>
       </c>
       <c r="G211" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H211" t="b">
         <v>1</v>
@@ -8631,22 +8640,22 @@
         <v>10015</v>
       </c>
       <c r="B212" t="s">
+        <v>68</v>
+      </c>
+      <c r="C212" t="s">
         <v>69</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>70</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>71</v>
       </c>
-      <c r="E212" t="s">
-        <v>72</v>
-      </c>
       <c r="F212">
         <v>1001</v>
       </c>
       <c r="G212" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H212" t="b">
         <v>1</v>
@@ -8663,22 +8672,22 @@
         <v>10016</v>
       </c>
       <c r="B213" t="s">
+        <v>72</v>
+      </c>
+      <c r="C213" t="s">
         <v>73</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>74</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>75</v>
       </c>
-      <c r="E213" t="s">
-        <v>76</v>
-      </c>
       <c r="F213">
         <v>1001</v>
       </c>
       <c r="G213" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H213" t="b">
         <v>1</v>
@@ -8695,22 +8704,22 @@
         <v>10017</v>
       </c>
       <c r="B214" t="s">
+        <v>76</v>
+      </c>
+      <c r="C214" t="s">
         <v>77</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>78</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>79</v>
       </c>
-      <c r="E214" t="s">
-        <v>80</v>
-      </c>
       <c r="F214">
         <v>1001</v>
       </c>
       <c r="G214" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H214" t="b">
         <v>1</v>
@@ -8727,22 +8736,22 @@
         <v>10018</v>
       </c>
       <c r="B215" t="s">
+        <v>80</v>
+      </c>
+      <c r="C215" t="s">
         <v>81</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>82</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>83</v>
       </c>
-      <c r="E215" t="s">
-        <v>84</v>
-      </c>
       <c r="F215">
         <v>1001</v>
       </c>
       <c r="G215" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H215" t="b">
         <v>1</v>
@@ -8759,22 +8768,22 @@
         <v>10019</v>
       </c>
       <c r="B216" t="s">
+        <v>84</v>
+      </c>
+      <c r="C216" t="s">
         <v>85</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>86</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>87</v>
       </c>
-      <c r="E216" t="s">
-        <v>88</v>
-      </c>
       <c r="F216">
         <v>1001</v>
       </c>
       <c r="G216" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H216" t="b">
         <v>1</v>
@@ -8791,22 +8800,22 @@
         <v>10020</v>
       </c>
       <c r="B217" t="s">
+        <v>88</v>
+      </c>
+      <c r="C217" t="s">
         <v>89</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>90</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>91</v>
       </c>
-      <c r="E217" t="s">
-        <v>92</v>
-      </c>
       <c r="F217">
         <v>1001</v>
       </c>
       <c r="G217" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H217" t="b">
         <v>1</v>
@@ -8823,22 +8832,22 @@
         <v>10021</v>
       </c>
       <c r="B218" t="s">
+        <v>92</v>
+      </c>
+      <c r="C218" t="s">
         <v>93</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>94</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>95</v>
       </c>
-      <c r="E218" t="s">
-        <v>96</v>
-      </c>
       <c r="F218">
         <v>1001</v>
       </c>
       <c r="G218" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H218" t="b">
         <v>1</v>
@@ -8855,22 +8864,22 @@
         <v>10022</v>
       </c>
       <c r="B219" t="s">
+        <v>96</v>
+      </c>
+      <c r="C219" t="s">
         <v>97</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>98</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>99</v>
       </c>
-      <c r="E219" t="s">
-        <v>100</v>
-      </c>
       <c r="F219">
         <v>1001</v>
       </c>
       <c r="G219" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H219" t="b">
         <v>1</v>
@@ -8887,22 +8896,22 @@
         <v>10023</v>
       </c>
       <c r="B220" t="s">
+        <v>100</v>
+      </c>
+      <c r="C220" t="s">
         <v>101</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>102</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>103</v>
       </c>
-      <c r="E220" t="s">
-        <v>104</v>
-      </c>
       <c r="F220">
         <v>1001</v>
       </c>
       <c r="G220" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H220" t="b">
         <v>1</v>
@@ -8919,22 +8928,22 @@
         <v>10024</v>
       </c>
       <c r="B221" t="s">
+        <v>104</v>
+      </c>
+      <c r="C221" t="s">
         <v>105</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>106</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>107</v>
       </c>
-      <c r="E221" t="s">
-        <v>108</v>
-      </c>
       <c r="F221">
         <v>1001</v>
       </c>
       <c r="G221" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H221" t="b">
         <v>1</v>
@@ -8951,22 +8960,22 @@
         <v>10025</v>
       </c>
       <c r="B222" t="s">
+        <v>108</v>
+      </c>
+      <c r="C222" t="s">
         <v>109</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>110</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>111</v>
       </c>
-      <c r="E222" t="s">
-        <v>112</v>
-      </c>
       <c r="F222">
         <v>1001</v>
       </c>
       <c r="G222" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H222" t="b">
         <v>1</v>
@@ -8983,22 +8992,22 @@
         <v>10026</v>
       </c>
       <c r="B223" t="s">
+        <v>112</v>
+      </c>
+      <c r="C223" t="s">
         <v>113</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>114</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>115</v>
       </c>
-      <c r="E223" t="s">
-        <v>116</v>
-      </c>
       <c r="F223">
         <v>1001</v>
       </c>
       <c r="G223" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H223" t="b">
         <v>1</v>
@@ -9015,22 +9024,22 @@
         <v>10027</v>
       </c>
       <c r="B224" t="s">
+        <v>116</v>
+      </c>
+      <c r="C224" t="s">
         <v>117</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>118</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>119</v>
       </c>
-      <c r="E224" t="s">
-        <v>120</v>
-      </c>
       <c r="F224">
         <v>1001</v>
       </c>
       <c r="G224" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H224" t="b">
         <v>1</v>
@@ -9047,22 +9056,22 @@
         <v>10028</v>
       </c>
       <c r="B225" t="s">
+        <v>120</v>
+      </c>
+      <c r="C225" t="s">
         <v>121</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>122</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>123</v>
       </c>
-      <c r="E225" t="s">
-        <v>124</v>
-      </c>
       <c r="F225">
         <v>1001</v>
       </c>
       <c r="G225" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H225" t="b">
         <v>1</v>
@@ -9079,22 +9088,22 @@
         <v>10029</v>
       </c>
       <c r="B226" t="s">
+        <v>124</v>
+      </c>
+      <c r="C226" t="s">
         <v>125</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>126</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>127</v>
       </c>
-      <c r="E226" t="s">
-        <v>128</v>
-      </c>
       <c r="F226">
         <v>1001</v>
       </c>
       <c r="G226" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H226" t="b">
         <v>1</v>
@@ -9111,22 +9120,22 @@
         <v>10030</v>
       </c>
       <c r="B227" t="s">
+        <v>128</v>
+      </c>
+      <c r="C227" t="s">
         <v>129</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>130</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>131</v>
       </c>
-      <c r="E227" t="s">
-        <v>132</v>
-      </c>
       <c r="F227">
         <v>1001</v>
       </c>
       <c r="G227" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H227" t="b">
         <v>1</v>
@@ -9143,22 +9152,22 @@
         <v>10031</v>
       </c>
       <c r="B228" t="s">
+        <v>132</v>
+      </c>
+      <c r="C228" t="s">
         <v>133</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>134</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>135</v>
       </c>
-      <c r="E228" t="s">
-        <v>136</v>
-      </c>
       <c r="F228">
         <v>1001</v>
       </c>
       <c r="G228" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H228" t="b">
         <v>1</v>
@@ -9175,22 +9184,22 @@
         <v>10032</v>
       </c>
       <c r="B229" t="s">
+        <v>136</v>
+      </c>
+      <c r="C229" t="s">
         <v>137</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>138</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>139</v>
       </c>
-      <c r="E229" t="s">
-        <v>140</v>
-      </c>
       <c r="F229">
         <v>1001</v>
       </c>
       <c r="G229" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H229" t="b">
         <v>1</v>
@@ -9207,22 +9216,22 @@
         <v>10033</v>
       </c>
       <c r="B230" t="s">
+        <v>140</v>
+      </c>
+      <c r="C230" t="s">
         <v>141</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>142</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>143</v>
       </c>
-      <c r="E230" t="s">
-        <v>144</v>
-      </c>
       <c r="F230">
         <v>1001</v>
       </c>
       <c r="G230" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H230" t="b">
         <v>1</v>
@@ -9239,22 +9248,22 @@
         <v>10034</v>
       </c>
       <c r="B231" t="s">
+        <v>144</v>
+      </c>
+      <c r="C231" t="s">
         <v>145</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>146</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>147</v>
       </c>
-      <c r="E231" t="s">
-        <v>148</v>
-      </c>
       <c r="F231">
         <v>1001</v>
       </c>
       <c r="G231" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H231" t="b">
         <v>1</v>
@@ -9271,22 +9280,22 @@
         <v>10035</v>
       </c>
       <c r="B232" t="s">
+        <v>148</v>
+      </c>
+      <c r="C232" t="s">
         <v>149</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>150</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>151</v>
       </c>
-      <c r="E232" t="s">
-        <v>152</v>
-      </c>
       <c r="F232">
         <v>1001</v>
       </c>
       <c r="G232" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H232" t="b">
         <v>1</v>
@@ -9303,22 +9312,22 @@
         <v>10036</v>
       </c>
       <c r="B233" t="s">
+        <v>152</v>
+      </c>
+      <c r="C233" t="s">
         <v>153</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>154</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>155</v>
       </c>
-      <c r="E233" t="s">
-        <v>156</v>
-      </c>
       <c r="F233">
         <v>1001</v>
       </c>
       <c r="G233" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H233" t="b">
         <v>1</v>
@@ -9335,22 +9344,22 @@
         <v>10037</v>
       </c>
       <c r="B234" t="s">
+        <v>156</v>
+      </c>
+      <c r="C234" t="s">
         <v>157</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>158</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>159</v>
       </c>
-      <c r="E234" t="s">
-        <v>160</v>
-      </c>
       <c r="F234">
         <v>1001</v>
       </c>
       <c r="G234" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H234" t="b">
         <v>1</v>
@@ -9367,22 +9376,22 @@
         <v>10038</v>
       </c>
       <c r="B235" t="s">
+        <v>160</v>
+      </c>
+      <c r="C235" t="s">
         <v>161</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>162</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>163</v>
       </c>
-      <c r="E235" t="s">
-        <v>164</v>
-      </c>
       <c r="F235">
         <v>1001</v>
       </c>
       <c r="G235" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H235" t="b">
         <v>1</v>
@@ -9399,22 +9408,22 @@
         <v>10039</v>
       </c>
       <c r="B236" t="s">
+        <v>164</v>
+      </c>
+      <c r="C236" t="s">
+        <v>328</v>
+      </c>
+      <c r="D236" t="s">
         <v>165</v>
       </c>
-      <c r="C236" t="s">
+      <c r="E236" t="s">
         <v>166</v>
       </c>
-      <c r="D236" t="s">
-        <v>167</v>
-      </c>
-      <c r="E236" t="s">
-        <v>168</v>
-      </c>
       <c r="F236">
         <v>1001</v>
       </c>
       <c r="G236" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H236" t="b">
         <v>1</v>
@@ -9431,22 +9440,22 @@
         <v>10040</v>
       </c>
       <c r="B237" t="s">
+        <v>167</v>
+      </c>
+      <c r="C237" t="s">
+        <v>168</v>
+      </c>
+      <c r="D237" t="s">
         <v>169</v>
       </c>
-      <c r="C237" t="s">
+      <c r="E237" t="s">
         <v>170</v>
       </c>
-      <c r="D237" t="s">
-        <v>171</v>
-      </c>
-      <c r="E237" t="s">
-        <v>172</v>
-      </c>
       <c r="F237">
         <v>1001</v>
       </c>
       <c r="G237" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H237" t="b">
         <v>1</v>
@@ -9463,22 +9472,22 @@
         <v>10041</v>
       </c>
       <c r="B238" t="s">
+        <v>171</v>
+      </c>
+      <c r="C238" t="s">
+        <v>172</v>
+      </c>
+      <c r="D238" t="s">
         <v>173</v>
       </c>
-      <c r="C238" t="s">
+      <c r="E238" t="s">
         <v>174</v>
       </c>
-      <c r="D238" t="s">
-        <v>175</v>
-      </c>
-      <c r="E238" t="s">
-        <v>176</v>
-      </c>
       <c r="F238">
         <v>1001</v>
       </c>
       <c r="G238" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H238" t="b">
         <v>1</v>
@@ -9495,22 +9504,22 @@
         <v>10042</v>
       </c>
       <c r="B239" t="s">
+        <v>175</v>
+      </c>
+      <c r="C239" t="s">
+        <v>176</v>
+      </c>
+      <c r="D239" t="s">
         <v>177</v>
       </c>
-      <c r="C239" t="s">
+      <c r="E239" t="s">
         <v>178</v>
       </c>
-      <c r="D239" t="s">
-        <v>179</v>
-      </c>
-      <c r="E239" t="s">
-        <v>180</v>
-      </c>
       <c r="F239">
         <v>1001</v>
       </c>
       <c r="G239" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H239" t="b">
         <v>1</v>
@@ -9527,22 +9536,22 @@
         <v>10043</v>
       </c>
       <c r="B240" t="s">
+        <v>179</v>
+      </c>
+      <c r="C240" t="s">
+        <v>327</v>
+      </c>
+      <c r="D240" t="s">
+        <v>180</v>
+      </c>
+      <c r="E240" t="s">
         <v>181</v>
       </c>
-      <c r="C240" t="s">
-        <v>333</v>
-      </c>
-      <c r="D240" t="s">
-        <v>182</v>
-      </c>
-      <c r="E240" t="s">
-        <v>183</v>
-      </c>
       <c r="F240">
         <v>1001</v>
       </c>
       <c r="G240" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H240" t="b">
         <v>1</v>
@@ -9559,22 +9568,22 @@
         <v>10044</v>
       </c>
       <c r="B241" t="s">
+        <v>182</v>
+      </c>
+      <c r="C241" t="s">
+        <v>183</v>
+      </c>
+      <c r="D241" t="s">
         <v>184</v>
       </c>
-      <c r="C241" t="s">
+      <c r="E241" t="s">
         <v>185</v>
       </c>
-      <c r="D241" t="s">
-        <v>186</v>
-      </c>
-      <c r="E241" t="s">
-        <v>187</v>
-      </c>
       <c r="F241">
         <v>1001</v>
       </c>
       <c r="G241" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H241" t="b">
         <v>1</v>
@@ -9591,22 +9600,22 @@
         <v>10045</v>
       </c>
       <c r="B242" t="s">
+        <v>186</v>
+      </c>
+      <c r="C242" t="s">
+        <v>187</v>
+      </c>
+      <c r="D242" t="s">
         <v>188</v>
       </c>
-      <c r="C242" t="s">
+      <c r="E242" t="s">
         <v>189</v>
       </c>
-      <c r="D242" t="s">
-        <v>190</v>
-      </c>
-      <c r="E242" t="s">
-        <v>191</v>
-      </c>
       <c r="F242">
         <v>1001</v>
       </c>
       <c r="G242" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H242" t="b">
         <v>1</v>
@@ -9623,22 +9632,22 @@
         <v>10046</v>
       </c>
       <c r="B243" t="s">
+        <v>190</v>
+      </c>
+      <c r="C243" t="s">
+        <v>191</v>
+      </c>
+      <c r="D243" t="s">
         <v>192</v>
       </c>
-      <c r="C243" t="s">
+      <c r="E243" t="s">
         <v>193</v>
       </c>
-      <c r="D243" t="s">
-        <v>194</v>
-      </c>
-      <c r="E243" t="s">
-        <v>195</v>
-      </c>
       <c r="F243">
         <v>1001</v>
       </c>
       <c r="G243" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H243" t="b">
         <v>1</v>
@@ -9655,22 +9664,22 @@
         <v>10047</v>
       </c>
       <c r="B244" t="s">
+        <v>194</v>
+      </c>
+      <c r="C244" t="s">
+        <v>195</v>
+      </c>
+      <c r="D244" t="s">
         <v>196</v>
       </c>
-      <c r="C244" t="s">
+      <c r="E244" t="s">
         <v>197</v>
       </c>
-      <c r="D244" t="s">
-        <v>198</v>
-      </c>
-      <c r="E244" t="s">
-        <v>199</v>
-      </c>
       <c r="F244">
         <v>1001</v>
       </c>
       <c r="G244" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H244" t="b">
         <v>1</v>
@@ -9687,22 +9696,22 @@
         <v>10048</v>
       </c>
       <c r="B245" t="s">
+        <v>198</v>
+      </c>
+      <c r="C245" t="s">
+        <v>199</v>
+      </c>
+      <c r="D245" t="s">
         <v>200</v>
       </c>
-      <c r="C245" t="s">
+      <c r="E245" t="s">
         <v>201</v>
       </c>
-      <c r="D245" t="s">
-        <v>202</v>
-      </c>
-      <c r="E245" t="s">
-        <v>203</v>
-      </c>
       <c r="F245">
         <v>1001</v>
       </c>
       <c r="G245" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H245" t="b">
         <v>1</v>
@@ -9719,22 +9728,22 @@
         <v>10049</v>
       </c>
       <c r="B246" t="s">
+        <v>202</v>
+      </c>
+      <c r="C246" t="s">
+        <v>203</v>
+      </c>
+      <c r="D246" t="s">
         <v>204</v>
       </c>
-      <c r="C246" t="s">
+      <c r="E246" t="s">
         <v>205</v>
       </c>
-      <c r="D246" t="s">
-        <v>206</v>
-      </c>
-      <c r="E246" t="s">
-        <v>207</v>
-      </c>
       <c r="F246">
         <v>1001</v>
       </c>
       <c r="G246" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H246" t="b">
         <v>1</v>
@@ -9751,22 +9760,22 @@
         <v>10050</v>
       </c>
       <c r="B247" t="s">
+        <v>206</v>
+      </c>
+      <c r="C247" t="s">
+        <v>207</v>
+      </c>
+      <c r="D247" t="s">
         <v>208</v>
       </c>
-      <c r="C247" t="s">
+      <c r="E247" t="s">
         <v>209</v>
       </c>
-      <c r="D247" t="s">
-        <v>210</v>
-      </c>
-      <c r="E247" t="s">
-        <v>211</v>
-      </c>
       <c r="F247">
         <v>1001</v>
       </c>
       <c r="G247" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H247" t="b">
         <v>1</v>
@@ -9783,22 +9792,22 @@
         <v>10051</v>
       </c>
       <c r="B248" t="s">
+        <v>210</v>
+      </c>
+      <c r="C248" t="s">
+        <v>211</v>
+      </c>
+      <c r="D248" t="s">
         <v>212</v>
       </c>
-      <c r="C248" t="s">
+      <c r="E248" t="s">
         <v>213</v>
       </c>
-      <c r="D248" t="s">
-        <v>214</v>
-      </c>
-      <c r="E248" t="s">
-        <v>215</v>
-      </c>
       <c r="F248">
         <v>1001</v>
       </c>
       <c r="G248" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H248" t="b">
         <v>1</v>
@@ -9815,22 +9824,22 @@
         <v>10052</v>
       </c>
       <c r="B249" t="s">
+        <v>214</v>
+      </c>
+      <c r="C249" t="s">
+        <v>326</v>
+      </c>
+      <c r="D249" t="s">
+        <v>215</v>
+      </c>
+      <c r="E249" t="s">
         <v>216</v>
       </c>
-      <c r="C249" t="s">
-        <v>332</v>
-      </c>
-      <c r="D249" t="s">
-        <v>217</v>
-      </c>
-      <c r="E249" t="s">
-        <v>218</v>
-      </c>
       <c r="F249">
         <v>1001</v>
       </c>
       <c r="G249" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H249" t="b">
         <v>1</v>
@@ -9847,22 +9856,22 @@
         <v>10053</v>
       </c>
       <c r="B250" t="s">
+        <v>217</v>
+      </c>
+      <c r="C250" t="s">
+        <v>218</v>
+      </c>
+      <c r="D250" t="s">
         <v>219</v>
       </c>
-      <c r="C250" t="s">
+      <c r="E250" t="s">
         <v>220</v>
       </c>
-      <c r="D250" t="s">
-        <v>221</v>
-      </c>
-      <c r="E250" t="s">
-        <v>222</v>
-      </c>
       <c r="F250">
         <v>1001</v>
       </c>
       <c r="G250" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H250" t="b">
         <v>1</v>
@@ -9879,22 +9888,22 @@
         <v>10054</v>
       </c>
       <c r="B251" t="s">
+        <v>221</v>
+      </c>
+      <c r="C251" t="s">
+        <v>222</v>
+      </c>
+      <c r="D251" t="s">
         <v>223</v>
       </c>
-      <c r="C251" t="s">
+      <c r="E251" t="s">
         <v>224</v>
       </c>
-      <c r="D251" t="s">
-        <v>225</v>
-      </c>
-      <c r="E251" t="s">
-        <v>226</v>
-      </c>
       <c r="F251">
         <v>1001</v>
       </c>
       <c r="G251" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H251" t="b">
         <v>1</v>
@@ -9911,22 +9920,22 @@
         <v>10055</v>
       </c>
       <c r="B252" t="s">
+        <v>225</v>
+      </c>
+      <c r="C252" t="s">
+        <v>226</v>
+      </c>
+      <c r="D252" t="s">
         <v>227</v>
       </c>
-      <c r="C252" t="s">
+      <c r="E252" t="s">
         <v>228</v>
       </c>
-      <c r="D252" t="s">
-        <v>229</v>
-      </c>
-      <c r="E252" t="s">
-        <v>230</v>
-      </c>
       <c r="F252">
         <v>1001</v>
       </c>
       <c r="G252" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H252" t="b">
         <v>1</v>
@@ -9943,22 +9952,22 @@
         <v>10056</v>
       </c>
       <c r="B253" t="s">
+        <v>229</v>
+      </c>
+      <c r="C253" t="s">
+        <v>230</v>
+      </c>
+      <c r="D253" t="s">
         <v>231</v>
       </c>
-      <c r="C253" t="s">
+      <c r="E253" t="s">
         <v>232</v>
       </c>
-      <c r="D253" t="s">
-        <v>233</v>
-      </c>
-      <c r="E253" t="s">
-        <v>234</v>
-      </c>
       <c r="F253">
         <v>1001</v>
       </c>
       <c r="G253" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H253" t="b">
         <v>1</v>
@@ -9975,22 +9984,22 @@
         <v>10057</v>
       </c>
       <c r="B254" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C254" t="s">
+        <v>233</v>
+      </c>
+      <c r="D254" t="s">
+        <v>234</v>
+      </c>
+      <c r="E254" t="s">
         <v>235</v>
       </c>
-      <c r="D254" t="s">
-        <v>236</v>
-      </c>
-      <c r="E254" t="s">
-        <v>237</v>
-      </c>
       <c r="F254">
         <v>1001</v>
       </c>
       <c r="G254" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H254" t="b">
         <v>1</v>
@@ -10007,22 +10016,22 @@
         <v>10058</v>
       </c>
       <c r="B255" t="s">
+        <v>236</v>
+      </c>
+      <c r="C255" t="s">
+        <v>237</v>
+      </c>
+      <c r="D255" t="s">
         <v>238</v>
       </c>
-      <c r="C255" t="s">
+      <c r="E255" t="s">
         <v>239</v>
       </c>
-      <c r="D255" t="s">
-        <v>240</v>
-      </c>
-      <c r="E255" t="s">
-        <v>241</v>
-      </c>
       <c r="F255">
         <v>1001</v>
       </c>
       <c r="G255" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H255" t="b">
         <v>1</v>
@@ -10039,22 +10048,22 @@
         <v>10059</v>
       </c>
       <c r="B256" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C256" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D256" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E256" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F256">
         <v>1001</v>
       </c>
       <c r="G256" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H256" t="b">
         <v>1</v>
@@ -10071,22 +10080,22 @@
         <v>10060</v>
       </c>
       <c r="B257" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C257" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D257" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E257" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F257">
         <v>1001</v>
       </c>
       <c r="G257" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H257" t="b">
         <v>1</v>
@@ -10103,22 +10112,22 @@
         <v>10061</v>
       </c>
       <c r="B258" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C258" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D258" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E258" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F258">
         <v>1001</v>
       </c>
       <c r="G258" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H258" t="b">
         <v>1</v>
@@ -10135,22 +10144,22 @@
         <v>10062</v>
       </c>
       <c r="B259" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C259" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D259" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E259" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F259">
         <v>1001</v>
       </c>
       <c r="G259" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H259" t="b">
         <v>1</v>
@@ -10167,22 +10176,22 @@
         <v>10063</v>
       </c>
       <c r="B260" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C260" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D260" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E260" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F260">
         <v>1001</v>
       </c>
       <c r="G260" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H260" t="b">
         <v>1</v>
@@ -10199,22 +10208,22 @@
         <v>10064</v>
       </c>
       <c r="B261" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C261" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D261" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E261" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F261">
         <v>1001</v>
       </c>
       <c r="G261" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H261" t="b">
         <v>1</v>
@@ -10231,22 +10240,22 @@
         <v>10065</v>
       </c>
       <c r="B262" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C262" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D262" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E262" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F262">
         <v>1001</v>
       </c>
       <c r="G262" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H262" t="b">
         <v>1</v>
@@ -10263,22 +10272,22 @@
         <v>10066</v>
       </c>
       <c r="B263" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C263" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D263" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E263" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F263">
         <v>1001</v>
       </c>
       <c r="G263" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H263" t="b">
         <v>1</v>
@@ -10295,22 +10304,22 @@
         <v>10067</v>
       </c>
       <c r="B264" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="C264" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="D264" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E264" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F264">
         <v>1001</v>
       </c>
       <c r="G264" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H264" t="b">
         <v>1</v>
@@ -10327,22 +10336,22 @@
         <v>10068</v>
       </c>
       <c r="B265" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="C265" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="D265" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E265" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F265">
         <v>1001</v>
       </c>
       <c r="G265" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H265" t="b">
         <v>1</v>
@@ -10359,22 +10368,22 @@
         <v>10069</v>
       </c>
       <c r="B266" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="C266" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="D266" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E266" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F266">
         <v>1001</v>
       </c>
       <c r="G266" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H266" t="b">
         <v>1</v>
@@ -10391,22 +10400,22 @@
         <v>10070</v>
       </c>
       <c r="B267" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C267" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D267" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E267" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F267">
         <v>1001</v>
       </c>
       <c r="G267" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H267" t="b">
         <v>1</v>
@@ -10423,22 +10432,22 @@
         <v>10071</v>
       </c>
       <c r="B268" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C268" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D268" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E268" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F268">
         <v>1001</v>
       </c>
       <c r="G268" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H268" t="b">
         <v>1</v>
@@ -10455,22 +10464,22 @@
         <v>10072</v>
       </c>
       <c r="B269" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C269" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D269" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E269" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F269">
         <v>1001</v>
       </c>
       <c r="G269" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H269" t="b">
         <v>1</v>
@@ -10487,22 +10496,22 @@
         <v>10073</v>
       </c>
       <c r="B270" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C270" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D270" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E270" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F270">
         <v>1001</v>
       </c>
       <c r="G270" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H270" t="b">
         <v>1</v>
@@ -10519,22 +10528,22 @@
         <v>10074</v>
       </c>
       <c r="B271" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C271" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D271" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E271" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F271">
         <v>1001</v>
       </c>
       <c r="G271" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H271" t="b">
         <v>1</v>
@@ -10551,22 +10560,22 @@
         <v>10075</v>
       </c>
       <c r="B272" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C272" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D272" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E272" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F272">
         <v>1001</v>
       </c>
       <c r="G272" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H272" t="b">
         <v>1</v>
@@ -10583,22 +10592,22 @@
         <v>10076</v>
       </c>
       <c r="B273" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C273" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D273" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E273" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F273">
         <v>1001</v>
       </c>
       <c r="G273" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H273" t="b">
         <v>1</v>
@@ -10615,22 +10624,22 @@
         <v>10077</v>
       </c>
       <c r="B274" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C274" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D274" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E274" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F274">
         <v>1001</v>
       </c>
       <c r="G274" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H274" t="b">
         <v>1</v>
@@ -10647,22 +10656,22 @@
         <v>10078</v>
       </c>
       <c r="B275" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C275" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D275" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E275" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F275">
         <v>1001</v>
       </c>
       <c r="G275" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H275" t="b">
         <v>1</v>
@@ -10679,22 +10688,22 @@
         <v>10079</v>
       </c>
       <c r="B276" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C276" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D276" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E276" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F276">
         <v>1001</v>
       </c>
       <c r="G276" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H276" t="b">
         <v>1</v>
@@ -10711,22 +10720,22 @@
         <v>10080</v>
       </c>
       <c r="B277" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C277" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D277" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E277" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F277">
         <v>1001</v>
       </c>
       <c r="G277" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H277" t="b">
         <v>1</v>
@@ -10743,22 +10752,22 @@
         <v>10081</v>
       </c>
       <c r="B278" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C278" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D278" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E278" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F278">
         <v>1001</v>
       </c>
       <c r="G278" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H278" t="b">
         <v>1</v>
@@ -10775,22 +10784,22 @@
         <v>10082</v>
       </c>
       <c r="B279" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C279" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D279" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E279" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F279">
         <v>1001</v>
       </c>
       <c r="G279" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H279" t="b">
         <v>1</v>
@@ -10807,22 +10816,22 @@
         <v>10083</v>
       </c>
       <c r="B280" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C280" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D280" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E280" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F280">
         <v>1001</v>
       </c>
       <c r="G280" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H280" t="b">
         <v>1</v>
@@ -10839,22 +10848,22 @@
         <v>10084</v>
       </c>
       <c r="B281" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C281" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D281" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E281" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F281">
         <v>1001</v>
       </c>
       <c r="G281" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H281" t="b">
         <v>1</v>
@@ -10871,22 +10880,22 @@
         <v>10085</v>
       </c>
       <c r="B282" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C282" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D282" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E282" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F282">
         <v>1001</v>
       </c>
       <c r="G282" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H282" t="b">
         <v>1</v>
@@ -10903,22 +10912,22 @@
         <v>10086</v>
       </c>
       <c r="B283" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C283" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D283" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E283" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F283">
         <v>1001</v>
       </c>
       <c r="G283" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H283" t="b">
         <v>1</v>
@@ -10935,22 +10944,22 @@
         <v>10087</v>
       </c>
       <c r="B284" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C284" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D284" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E284" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F284">
         <v>1001</v>
       </c>
       <c r="G284" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H284" t="b">
         <v>1</v>
@@ -10967,22 +10976,22 @@
         <v>10088</v>
       </c>
       <c r="B285" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C285" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D285" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E285" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F285">
         <v>1001</v>
       </c>
       <c r="G285" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H285" t="b">
         <v>1</v>
@@ -10999,22 +11008,22 @@
         <v>10089</v>
       </c>
       <c r="B286" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C286" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D286" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E286" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F286">
         <v>1001</v>
       </c>
       <c r="G286" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H286" t="b">
         <v>1</v>
@@ -11031,22 +11040,22 @@
         <v>10090</v>
       </c>
       <c r="B287" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C287" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D287" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E287" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F287">
         <v>1001</v>
       </c>
       <c r="G287" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H287" t="b">
         <v>1</v>
@@ -11063,22 +11072,22 @@
         <v>10091</v>
       </c>
       <c r="B288" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C288" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D288" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E288" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F288">
         <v>1001</v>
       </c>
       <c r="G288" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H288" t="b">
         <v>1</v>
@@ -11095,22 +11104,22 @@
         <v>10092</v>
       </c>
       <c r="B289" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C289" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D289" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E289" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F289">
         <v>1001</v>
       </c>
       <c r="G289" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H289" t="b">
         <v>1</v>
@@ -11127,22 +11136,22 @@
         <v>10093</v>
       </c>
       <c r="B290" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C290" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D290" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E290" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F290">
         <v>1001</v>
       </c>
       <c r="G290" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H290" t="b">
         <v>1</v>
@@ -11159,22 +11168,22 @@
         <v>10094</v>
       </c>
       <c r="B291" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C291" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D291" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E291" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F291">
         <v>1001</v>
       </c>
       <c r="G291" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H291" t="b">
         <v>1</v>
@@ -11191,22 +11200,22 @@
         <v>10095</v>
       </c>
       <c r="B292" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C292" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D292" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E292" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F292">
         <v>1001</v>
       </c>
       <c r="G292" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H292" t="b">
         <v>1</v>
@@ -11223,22 +11232,22 @@
         <v>10096</v>
       </c>
       <c r="B293" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C293" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D293" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E293" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F293">
         <v>1001</v>
       </c>
       <c r="G293" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H293" t="b">
         <v>1</v>
@@ -11255,22 +11264,22 @@
         <v>10097</v>
       </c>
       <c r="B294" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C294" t="s">
+        <v>306</v>
+      </c>
+      <c r="D294" t="s">
+        <v>219</v>
+      </c>
+      <c r="E294" t="s">
+        <v>307</v>
+      </c>
+      <c r="F294">
+        <v>1001</v>
+      </c>
+      <c r="G294" t="s">
         <v>311</v>
-      </c>
-      <c r="D294" t="s">
-        <v>221</v>
-      </c>
-      <c r="E294" t="s">
-        <v>312</v>
-      </c>
-      <c r="F294">
-        <v>1001</v>
-      </c>
-      <c r="G294" t="s">
-        <v>316</v>
       </c>
       <c r="H294" t="b">
         <v>1</v>
@@ -11287,22 +11296,22 @@
         <v>10098</v>
       </c>
       <c r="B295" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C295" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D295" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E295" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F295">
         <v>1001</v>
       </c>
       <c r="G295" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H295" t="b">
         <v>1</v>

--- a/_files/requirements/master_data/master-machine_master.xlsx
+++ b/_files/requirements/master_data/master-machine_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2674048B-BDAF-4944-9EC4-7E9356D578B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA096C-A514-4AD4-AFC9-19B7A3AD5604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="339">
   <si>
     <t>id</t>
   </si>
@@ -1031,6 +1031,12 @@
   </si>
   <si>
     <t>E8-6A-64-0F-F8-A1</t>
+  </si>
+  <si>
+    <t>8C-16-45-FA-94-41</t>
+  </si>
+  <si>
+    <t>A2ML28933</t>
   </si>
 </sst>
 </file>
@@ -1873,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4128,10 +4134,10 @@
         <v>10070</v>
       </c>
       <c r="B71" t="s">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="D71" t="s">
         <v>200</v>
@@ -10400,10 +10406,10 @@
         <v>10070</v>
       </c>
       <c r="B267" t="s">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="C267" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="D267" t="s">
         <v>200</v>

--- a/_files/requirements/master_data/master-machine_master.xlsx
+++ b/_files/requirements/master_data/master-machine_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA096C-A514-4AD4-AFC9-19B7A3AD5604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CE65C-E803-40FD-8032-AAFAD8778AA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="340">
   <si>
     <t>id</t>
   </si>
@@ -778,15 +778,9 @@
     <t>192.168.0.395</t>
   </si>
   <si>
-    <t>56-2C-10-86-DE-ED</t>
-  </si>
-  <si>
     <t>192.168.0.396</t>
   </si>
   <si>
-    <t>11-DE-EB-B6-96-7D</t>
-  </si>
-  <si>
     <t>192.168.0.397</t>
   </si>
   <si>
@@ -1037,6 +1031,15 @@
   </si>
   <si>
     <t>A2ML28933</t>
+  </si>
+  <si>
+    <t>A2ML21970</t>
+  </si>
+  <si>
+    <t>C8-D3-FF-75-E1-8B</t>
+  </si>
+  <si>
+    <t>A8-D3-FF-75-E1-8B</t>
   </si>
 </sst>
 </file>
@@ -1879,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1993,7 +1996,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -3145,7 +3148,7 @@
         <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D40" t="s">
         <v>165</v>
@@ -3273,7 +3276,7 @@
         <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D44" t="s">
         <v>180</v>
@@ -3561,7 +3564,7 @@
         <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D53" t="s">
         <v>215</v>
@@ -3782,10 +3785,10 @@
         <v>10059</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C60" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D60" t="s">
         <v>200</v>
@@ -3814,10 +3817,10 @@
         <v>10060</v>
       </c>
       <c r="B61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
         <v>204</v>
@@ -3846,10 +3849,10 @@
         <v>10061</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D62" t="s">
         <v>208</v>
@@ -3878,7 +3881,7 @@
         <v>10062</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C63" t="s">
         <v>149</v>
@@ -3910,10 +3913,10 @@
         <v>10063</v>
       </c>
       <c r="B64" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D64" t="s">
         <v>215</v>
@@ -3942,10 +3945,10 @@
         <v>10064</v>
       </c>
       <c r="B65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D65" t="s">
         <v>219</v>
@@ -3974,10 +3977,10 @@
         <v>10065</v>
       </c>
       <c r="B66" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
         <v>223</v>
@@ -4006,10 +4009,10 @@
         <v>10066</v>
       </c>
       <c r="B67" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D67" t="s">
         <v>227</v>
@@ -4038,10 +4041,10 @@
         <v>10067</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C68" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D68" t="s">
         <v>231</v>
@@ -4070,10 +4073,10 @@
         <v>10068</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D69" t="s">
         <v>234</v>
@@ -4102,10 +4105,10 @@
         <v>10069</v>
       </c>
       <c r="B70" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C70" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D70" t="s">
         <v>238</v>
@@ -4134,16 +4137,16 @@
         <v>10070</v>
       </c>
       <c r="B71" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C71" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D71" t="s">
         <v>200</v>
       </c>
       <c r="E71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F71">
         <v>1001</v>
@@ -4166,16 +4169,16 @@
         <v>10071</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="C72" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="D72" t="s">
         <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F72">
         <v>1001</v>
@@ -4201,13 +4204,13 @@
         <v>240</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D73" t="s">
         <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F73">
         <v>1001</v>
@@ -4233,13 +4236,13 @@
         <v>240</v>
       </c>
       <c r="C74" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D74" t="s">
         <v>212</v>
       </c>
       <c r="E74" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F74">
         <v>1001</v>
@@ -4265,13 +4268,13 @@
         <v>240</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s">
         <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F75">
         <v>1001</v>
@@ -4297,13 +4300,13 @@
         <v>240</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F76">
         <v>1001</v>
@@ -4329,13 +4332,13 @@
         <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
         <v>223</v>
       </c>
       <c r="E77" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F77">
         <v>1001</v>
@@ -4361,13 +4364,13 @@
         <v>240</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D78" t="s">
         <v>227</v>
       </c>
       <c r="E78" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F78">
         <v>1001</v>
@@ -4393,13 +4396,13 @@
         <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D79" t="s">
         <v>231</v>
       </c>
       <c r="E79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F79">
         <v>1001</v>
@@ -4425,13 +4428,13 @@
         <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D80" t="s">
         <v>234</v>
       </c>
       <c r="E80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F80">
         <v>1001</v>
@@ -4457,13 +4460,13 @@
         <v>240</v>
       </c>
       <c r="C81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D81" t="s">
         <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F81">
         <v>1001</v>
@@ -4489,13 +4492,13 @@
         <v>240</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D82" t="s">
         <v>200</v>
       </c>
       <c r="E82" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F82">
         <v>1001</v>
@@ -4521,13 +4524,13 @@
         <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D83" t="s">
         <v>204</v>
       </c>
       <c r="E83" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F83">
         <v>1001</v>
@@ -4553,13 +4556,13 @@
         <v>240</v>
       </c>
       <c r="C84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D84" t="s">
         <v>208</v>
       </c>
       <c r="E84" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F84">
         <v>1001</v>
@@ -4585,13 +4588,13 @@
         <v>240</v>
       </c>
       <c r="C85" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D85" t="s">
         <v>212</v>
       </c>
       <c r="E85" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F85">
         <v>1001</v>
@@ -4617,13 +4620,13 @@
         <v>240</v>
       </c>
       <c r="C86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D86" t="s">
         <v>215</v>
       </c>
       <c r="E86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F86">
         <v>1001</v>
@@ -4649,13 +4652,13 @@
         <v>240</v>
       </c>
       <c r="C87" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D87" t="s">
         <v>219</v>
       </c>
       <c r="E87" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F87">
         <v>1001</v>
@@ -4681,13 +4684,13 @@
         <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D88" t="s">
         <v>223</v>
       </c>
       <c r="E88" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F88">
         <v>1001</v>
@@ -4713,13 +4716,13 @@
         <v>240</v>
       </c>
       <c r="C89" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D89" t="s">
         <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F89">
         <v>1001</v>
@@ -4745,13 +4748,13 @@
         <v>240</v>
       </c>
       <c r="C90" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D90" t="s">
         <v>231</v>
       </c>
       <c r="E90" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F90">
         <v>1001</v>
@@ -4777,13 +4780,13 @@
         <v>240</v>
       </c>
       <c r="C91" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D91" t="s">
         <v>234</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F91">
         <v>1001</v>
@@ -4809,13 +4812,13 @@
         <v>240</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D92" t="s">
         <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F92">
         <v>1001</v>
@@ -4841,13 +4844,13 @@
         <v>240</v>
       </c>
       <c r="C93" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D93" t="s">
         <v>200</v>
       </c>
       <c r="E93" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F93">
         <v>1001</v>
@@ -4873,13 +4876,13 @@
         <v>240</v>
       </c>
       <c r="C94" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D94" t="s">
         <v>204</v>
       </c>
       <c r="E94" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F94">
         <v>1001</v>
@@ -4905,13 +4908,13 @@
         <v>240</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D95" t="s">
         <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F95">
         <v>1001</v>
@@ -4937,13 +4940,13 @@
         <v>240</v>
       </c>
       <c r="C96" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D96" t="s">
         <v>212</v>
       </c>
       <c r="E96" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F96">
         <v>1001</v>
@@ -4969,13 +4972,13 @@
         <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D97" t="s">
         <v>215</v>
       </c>
       <c r="E97" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F97">
         <v>1001</v>
@@ -5001,13 +5004,13 @@
         <v>240</v>
       </c>
       <c r="C98" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
         <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F98">
         <v>1001</v>
@@ -5033,13 +5036,13 @@
         <v>240</v>
       </c>
       <c r="C99" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D99" t="s">
         <v>223</v>
       </c>
       <c r="E99" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F99">
         <v>1001</v>
@@ -5077,7 +5080,7 @@
         <v>1001</v>
       </c>
       <c r="G100" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
@@ -5109,7 +5112,7 @@
         <v>1001</v>
       </c>
       <c r="G101" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
@@ -5129,7 +5132,7 @@
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D102" t="s">
         <v>22</v>
@@ -5141,7 +5144,7 @@
         <v>1001</v>
       </c>
       <c r="G102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -5173,7 +5176,7 @@
         <v>1001</v>
       </c>
       <c r="G103" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -5205,7 +5208,7 @@
         <v>1001</v>
       </c>
       <c r="G104" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -5237,7 +5240,7 @@
         <v>1001</v>
       </c>
       <c r="G105" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H105" t="b">
         <v>1</v>
@@ -5269,7 +5272,7 @@
         <v>1001</v>
       </c>
       <c r="G106" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
@@ -5301,7 +5304,7 @@
         <v>1001</v>
       </c>
       <c r="G107" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H107" t="b">
         <v>1</v>
@@ -5333,7 +5336,7 @@
         <v>1001</v>
       </c>
       <c r="G108" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H108" t="b">
         <v>1</v>
@@ -5365,7 +5368,7 @@
         <v>1001</v>
       </c>
       <c r="G109" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H109" t="b">
         <v>1</v>
@@ -5397,7 +5400,7 @@
         <v>1001</v>
       </c>
       <c r="G110" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H110" t="b">
         <v>1</v>
@@ -5429,7 +5432,7 @@
         <v>1001</v>
       </c>
       <c r="G111" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H111" t="b">
         <v>1</v>
@@ -5461,7 +5464,7 @@
         <v>1001</v>
       </c>
       <c r="G112" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H112" t="b">
         <v>1</v>
@@ -5493,7 +5496,7 @@
         <v>1001</v>
       </c>
       <c r="G113" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H113" t="b">
         <v>1</v>
@@ -5525,7 +5528,7 @@
         <v>1001</v>
       </c>
       <c r="G114" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H114" t="b">
         <v>1</v>
@@ -5557,7 +5560,7 @@
         <v>1001</v>
       </c>
       <c r="G115" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H115" t="b">
         <v>1</v>
@@ -5589,7 +5592,7 @@
         <v>1001</v>
       </c>
       <c r="G116" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H116" t="b">
         <v>1</v>
@@ -5621,7 +5624,7 @@
         <v>1001</v>
       </c>
       <c r="G117" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H117" t="b">
         <v>1</v>
@@ -5653,7 +5656,7 @@
         <v>1001</v>
       </c>
       <c r="G118" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
@@ -5685,7 +5688,7 @@
         <v>1001</v>
       </c>
       <c r="G119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -5717,7 +5720,7 @@
         <v>1001</v>
       </c>
       <c r="G120" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H120" t="b">
         <v>1</v>
@@ -5749,7 +5752,7 @@
         <v>1001</v>
       </c>
       <c r="G121" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H121" t="b">
         <v>1</v>
@@ -5781,7 +5784,7 @@
         <v>1001</v>
       </c>
       <c r="G122" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H122" t="b">
         <v>1</v>
@@ -5813,7 +5816,7 @@
         <v>1001</v>
       </c>
       <c r="G123" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H123" t="b">
         <v>1</v>
@@ -5845,7 +5848,7 @@
         <v>1001</v>
       </c>
       <c r="G124" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H124" t="b">
         <v>1</v>
@@ -5877,7 +5880,7 @@
         <v>1001</v>
       </c>
       <c r="G125" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
@@ -5909,7 +5912,7 @@
         <v>1001</v>
       </c>
       <c r="G126" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
@@ -5941,7 +5944,7 @@
         <v>1001</v>
       </c>
       <c r="G127" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H127" t="b">
         <v>1</v>
@@ -5973,7 +5976,7 @@
         <v>1001</v>
       </c>
       <c r="G128" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H128" t="b">
         <v>1</v>
@@ -6005,7 +6008,7 @@
         <v>1001</v>
       </c>
       <c r="G129" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H129" t="b">
         <v>1</v>
@@ -6037,7 +6040,7 @@
         <v>1001</v>
       </c>
       <c r="G130" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H130" t="b">
         <v>1</v>
@@ -6069,7 +6072,7 @@
         <v>1001</v>
       </c>
       <c r="G131" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H131" t="b">
         <v>1</v>
@@ -6101,7 +6104,7 @@
         <v>1001</v>
       </c>
       <c r="G132" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H132" t="b">
         <v>1</v>
@@ -6133,7 +6136,7 @@
         <v>1001</v>
       </c>
       <c r="G133" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H133" t="b">
         <v>1</v>
@@ -6165,7 +6168,7 @@
         <v>1001</v>
       </c>
       <c r="G134" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H134" t="b">
         <v>1</v>
@@ -6197,7 +6200,7 @@
         <v>1001</v>
       </c>
       <c r="G135" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H135" t="b">
         <v>1</v>
@@ -6229,7 +6232,7 @@
         <v>1001</v>
       </c>
       <c r="G136" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H136" t="b">
         <v>1</v>
@@ -6261,7 +6264,7 @@
         <v>1001</v>
       </c>
       <c r="G137" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H137" t="b">
         <v>1</v>
@@ -6281,7 +6284,7 @@
         <v>164</v>
       </c>
       <c r="C138" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D138" t="s">
         <v>165</v>
@@ -6293,7 +6296,7 @@
         <v>1001</v>
       </c>
       <c r="G138" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H138" t="b">
         <v>1</v>
@@ -6325,7 +6328,7 @@
         <v>1001</v>
       </c>
       <c r="G139" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H139" t="b">
         <v>1</v>
@@ -6357,7 +6360,7 @@
         <v>1001</v>
       </c>
       <c r="G140" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H140" t="b">
         <v>1</v>
@@ -6389,7 +6392,7 @@
         <v>1001</v>
       </c>
       <c r="G141" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H141" t="b">
         <v>1</v>
@@ -6409,7 +6412,7 @@
         <v>179</v>
       </c>
       <c r="C142" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D142" t="s">
         <v>180</v>
@@ -6421,7 +6424,7 @@
         <v>1001</v>
       </c>
       <c r="G142" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H142" t="b">
         <v>1</v>
@@ -6453,7 +6456,7 @@
         <v>1001</v>
       </c>
       <c r="G143" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H143" t="b">
         <v>1</v>
@@ -6485,7 +6488,7 @@
         <v>1001</v>
       </c>
       <c r="G144" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H144" t="b">
         <v>1</v>
@@ -6517,7 +6520,7 @@
         <v>1001</v>
       </c>
       <c r="G145" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H145" t="b">
         <v>1</v>
@@ -6549,7 +6552,7 @@
         <v>1001</v>
       </c>
       <c r="G146" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H146" t="b">
         <v>1</v>
@@ -6581,7 +6584,7 @@
         <v>1001</v>
       </c>
       <c r="G147" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H147" t="b">
         <v>1</v>
@@ -6613,7 +6616,7 @@
         <v>1001</v>
       </c>
       <c r="G148" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H148" t="b">
         <v>1</v>
@@ -6645,7 +6648,7 @@
         <v>1001</v>
       </c>
       <c r="G149" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H149" t="b">
         <v>1</v>
@@ -6677,7 +6680,7 @@
         <v>1001</v>
       </c>
       <c r="G150" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H150" t="b">
         <v>1</v>
@@ -6697,7 +6700,7 @@
         <v>214</v>
       </c>
       <c r="C151" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D151" t="s">
         <v>215</v>
@@ -6709,7 +6712,7 @@
         <v>1001</v>
       </c>
       <c r="G151" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H151" t="b">
         <v>1</v>
@@ -6741,7 +6744,7 @@
         <v>1001</v>
       </c>
       <c r="G152" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H152" t="b">
         <v>1</v>
@@ -6773,7 +6776,7 @@
         <v>1001</v>
       </c>
       <c r="G153" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H153" t="b">
         <v>1</v>
@@ -6805,7 +6808,7 @@
         <v>1001</v>
       </c>
       <c r="G154" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H154" t="b">
         <v>1</v>
@@ -6837,7 +6840,7 @@
         <v>1001</v>
       </c>
       <c r="G155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
@@ -6869,7 +6872,7 @@
         <v>1001</v>
       </c>
       <c r="G156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H156" t="b">
         <v>1</v>
@@ -6901,7 +6904,7 @@
         <v>1001</v>
       </c>
       <c r="G157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H157" t="b">
         <v>1</v>
@@ -6918,10 +6921,10 @@
         <v>10059</v>
       </c>
       <c r="B158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D158" t="s">
         <v>200</v>
@@ -6933,7 +6936,7 @@
         <v>1001</v>
       </c>
       <c r="G158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H158" t="b">
         <v>1</v>
@@ -6950,10 +6953,10 @@
         <v>10060</v>
       </c>
       <c r="B159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D159" t="s">
         <v>204</v>
@@ -6965,7 +6968,7 @@
         <v>1001</v>
       </c>
       <c r="G159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H159" t="b">
         <v>1</v>
@@ -6982,10 +6985,10 @@
         <v>10061</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D160" t="s">
         <v>208</v>
@@ -6997,7 +7000,7 @@
         <v>1001</v>
       </c>
       <c r="G160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H160" t="b">
         <v>1</v>
@@ -7014,7 +7017,7 @@
         <v>10062</v>
       </c>
       <c r="B161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C161" t="s">
         <v>149</v>
@@ -7029,7 +7032,7 @@
         <v>1001</v>
       </c>
       <c r="G161" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H161" t="b">
         <v>1</v>
@@ -7046,10 +7049,10 @@
         <v>10063</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D162" t="s">
         <v>215</v>
@@ -7061,7 +7064,7 @@
         <v>1001</v>
       </c>
       <c r="G162" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H162" t="b">
         <v>1</v>
@@ -7078,10 +7081,10 @@
         <v>10064</v>
       </c>
       <c r="B163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D163" t="s">
         <v>219</v>
@@ -7093,7 +7096,7 @@
         <v>1001</v>
       </c>
       <c r="G163" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H163" t="b">
         <v>1</v>
@@ -7110,10 +7113,10 @@
         <v>10065</v>
       </c>
       <c r="B164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C164" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D164" t="s">
         <v>223</v>
@@ -7125,7 +7128,7 @@
         <v>1001</v>
       </c>
       <c r="G164" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H164" t="b">
         <v>1</v>
@@ -7142,10 +7145,10 @@
         <v>10066</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D165" t="s">
         <v>227</v>
@@ -7157,7 +7160,7 @@
         <v>1001</v>
       </c>
       <c r="G165" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H165" t="b">
         <v>1</v>
@@ -7174,10 +7177,10 @@
         <v>10067</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D166" t="s">
         <v>231</v>
@@ -7189,7 +7192,7 @@
         <v>1001</v>
       </c>
       <c r="G166" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H166" t="b">
         <v>1</v>
@@ -7206,10 +7209,10 @@
         <v>10068</v>
       </c>
       <c r="B167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D167" t="s">
         <v>234</v>
@@ -7221,7 +7224,7 @@
         <v>1001</v>
       </c>
       <c r="G167" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H167" t="b">
         <v>1</v>
@@ -7238,10 +7241,10 @@
         <v>10069</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D168" t="s">
         <v>238</v>
@@ -7253,7 +7256,7 @@
         <v>1001</v>
       </c>
       <c r="G168" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H168" t="b">
         <v>1</v>
@@ -7270,22 +7273,22 @@
         <v>10070</v>
       </c>
       <c r="B169" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="C169" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="D169" t="s">
         <v>200</v>
       </c>
       <c r="E169" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F169">
         <v>1001</v>
       </c>
       <c r="G169" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H169" t="b">
         <v>1</v>
@@ -7302,22 +7305,22 @@
         <v>10071</v>
       </c>
       <c r="B170" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="C170" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="D170" t="s">
         <v>204</v>
       </c>
       <c r="E170" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F170">
         <v>1001</v>
       </c>
       <c r="G170" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H170" t="b">
         <v>1</v>
@@ -7337,19 +7340,19 @@
         <v>240</v>
       </c>
       <c r="C171" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D171" t="s">
         <v>208</v>
       </c>
       <c r="E171" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F171">
         <v>1001</v>
       </c>
       <c r="G171" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H171" t="b">
         <v>1</v>
@@ -7369,19 +7372,19 @@
         <v>240</v>
       </c>
       <c r="C172" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D172" t="s">
         <v>212</v>
       </c>
       <c r="E172" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F172">
         <v>1001</v>
       </c>
       <c r="G172" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H172" t="b">
         <v>1</v>
@@ -7401,19 +7404,19 @@
         <v>240</v>
       </c>
       <c r="C173" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D173" t="s">
         <v>215</v>
       </c>
       <c r="E173" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F173">
         <v>1001</v>
       </c>
       <c r="G173" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H173" t="b">
         <v>1</v>
@@ -7433,19 +7436,19 @@
         <v>240</v>
       </c>
       <c r="C174" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D174" t="s">
         <v>219</v>
       </c>
       <c r="E174" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F174">
         <v>1001</v>
       </c>
       <c r="G174" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H174" t="b">
         <v>1</v>
@@ -7465,19 +7468,19 @@
         <v>240</v>
       </c>
       <c r="C175" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D175" t="s">
         <v>223</v>
       </c>
       <c r="E175" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F175">
         <v>1001</v>
       </c>
       <c r="G175" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H175" t="b">
         <v>1</v>
@@ -7497,19 +7500,19 @@
         <v>240</v>
       </c>
       <c r="C176" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D176" t="s">
         <v>227</v>
       </c>
       <c r="E176" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F176">
         <v>1001</v>
       </c>
       <c r="G176" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H176" t="b">
         <v>1</v>
@@ -7529,19 +7532,19 @@
         <v>240</v>
       </c>
       <c r="C177" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D177" t="s">
         <v>231</v>
       </c>
       <c r="E177" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F177">
         <v>1001</v>
       </c>
       <c r="G177" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H177" t="b">
         <v>1</v>
@@ -7561,19 +7564,19 @@
         <v>240</v>
       </c>
       <c r="C178" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D178" t="s">
         <v>234</v>
       </c>
       <c r="E178" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F178">
         <v>1001</v>
       </c>
       <c r="G178" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H178" t="b">
         <v>1</v>
@@ -7593,19 +7596,19 @@
         <v>240</v>
       </c>
       <c r="C179" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D179" t="s">
         <v>238</v>
       </c>
       <c r="E179" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F179">
         <v>1001</v>
       </c>
       <c r="G179" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H179" t="b">
         <v>1</v>
@@ -7625,19 +7628,19 @@
         <v>240</v>
       </c>
       <c r="C180" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D180" t="s">
         <v>200</v>
       </c>
       <c r="E180" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F180">
         <v>1001</v>
       </c>
       <c r="G180" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H180" t="b">
         <v>1</v>
@@ -7657,19 +7660,19 @@
         <v>240</v>
       </c>
       <c r="C181" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D181" t="s">
         <v>204</v>
       </c>
       <c r="E181" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F181">
         <v>1001</v>
       </c>
       <c r="G181" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H181" t="b">
         <v>1</v>
@@ -7689,19 +7692,19 @@
         <v>240</v>
       </c>
       <c r="C182" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D182" t="s">
         <v>208</v>
       </c>
       <c r="E182" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F182">
         <v>1001</v>
       </c>
       <c r="G182" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H182" t="b">
         <v>1</v>
@@ -7721,19 +7724,19 @@
         <v>240</v>
       </c>
       <c r="C183" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D183" t="s">
         <v>212</v>
       </c>
       <c r="E183" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F183">
         <v>1001</v>
       </c>
       <c r="G183" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H183" t="b">
         <v>1</v>
@@ -7753,19 +7756,19 @@
         <v>240</v>
       </c>
       <c r="C184" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D184" t="s">
         <v>215</v>
       </c>
       <c r="E184" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F184">
         <v>1001</v>
       </c>
       <c r="G184" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H184" t="b">
         <v>1</v>
@@ -7785,19 +7788,19 @@
         <v>240</v>
       </c>
       <c r="C185" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D185" t="s">
         <v>219</v>
       </c>
       <c r="E185" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F185">
         <v>1001</v>
       </c>
       <c r="G185" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H185" t="b">
         <v>1</v>
@@ -7817,19 +7820,19 @@
         <v>240</v>
       </c>
       <c r="C186" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D186" t="s">
         <v>223</v>
       </c>
       <c r="E186" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F186">
         <v>1001</v>
       </c>
       <c r="G186" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H186" t="b">
         <v>1</v>
@@ -7849,19 +7852,19 @@
         <v>240</v>
       </c>
       <c r="C187" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D187" t="s">
         <v>227</v>
       </c>
       <c r="E187" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F187">
         <v>1001</v>
       </c>
       <c r="G187" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H187" t="b">
         <v>1</v>
@@ -7881,19 +7884,19 @@
         <v>240</v>
       </c>
       <c r="C188" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D188" t="s">
         <v>231</v>
       </c>
       <c r="E188" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F188">
         <v>1001</v>
       </c>
       <c r="G188" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H188" t="b">
         <v>1</v>
@@ -7913,19 +7916,19 @@
         <v>240</v>
       </c>
       <c r="C189" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D189" t="s">
         <v>234</v>
       </c>
       <c r="E189" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F189">
         <v>1001</v>
       </c>
       <c r="G189" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H189" t="b">
         <v>1</v>
@@ -7945,19 +7948,19 @@
         <v>240</v>
       </c>
       <c r="C190" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D190" t="s">
         <v>238</v>
       </c>
       <c r="E190" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F190">
         <v>1001</v>
       </c>
       <c r="G190" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H190" t="b">
         <v>1</v>
@@ -7977,19 +7980,19 @@
         <v>240</v>
       </c>
       <c r="C191" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D191" t="s">
         <v>200</v>
       </c>
       <c r="E191" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F191">
         <v>1001</v>
       </c>
       <c r="G191" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H191" t="b">
         <v>1</v>
@@ -8009,19 +8012,19 @@
         <v>240</v>
       </c>
       <c r="C192" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D192" t="s">
         <v>204</v>
       </c>
       <c r="E192" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F192">
         <v>1001</v>
       </c>
       <c r="G192" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H192" t="b">
         <v>1</v>
@@ -8041,19 +8044,19 @@
         <v>240</v>
       </c>
       <c r="C193" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D193" t="s">
         <v>208</v>
       </c>
       <c r="E193" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F193">
         <v>1001</v>
       </c>
       <c r="G193" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H193" t="b">
         <v>1</v>
@@ -8073,19 +8076,19 @@
         <v>240</v>
       </c>
       <c r="C194" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D194" t="s">
         <v>212</v>
       </c>
       <c r="E194" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F194">
         <v>1001</v>
       </c>
       <c r="G194" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H194" t="b">
         <v>1</v>
@@ -8105,19 +8108,19 @@
         <v>240</v>
       </c>
       <c r="C195" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D195" t="s">
         <v>215</v>
       </c>
       <c r="E195" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F195">
         <v>1001</v>
       </c>
       <c r="G195" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H195" t="b">
         <v>1</v>
@@ -8137,19 +8140,19 @@
         <v>240</v>
       </c>
       <c r="C196" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D196" t="s">
         <v>219</v>
       </c>
       <c r="E196" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F196">
         <v>1001</v>
       </c>
       <c r="G196" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H196" t="b">
         <v>1</v>
@@ -8169,19 +8172,19 @@
         <v>240</v>
       </c>
       <c r="C197" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D197" t="s">
         <v>223</v>
       </c>
       <c r="E197" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F197">
         <v>1001</v>
       </c>
       <c r="G197" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H197" t="b">
         <v>1</v>
@@ -8213,7 +8216,7 @@
         <v>1001</v>
       </c>
       <c r="G198" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H198" t="b">
         <v>1</v>
@@ -8245,7 +8248,7 @@
         <v>1001</v>
       </c>
       <c r="G199" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H199" t="b">
         <v>1</v>
@@ -8265,7 +8268,7 @@
         <v>21</v>
       </c>
       <c r="C200" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D200" t="s">
         <v>22</v>
@@ -8277,7 +8280,7 @@
         <v>1001</v>
       </c>
       <c r="G200" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H200" t="b">
         <v>1</v>
@@ -8309,7 +8312,7 @@
         <v>1001</v>
       </c>
       <c r="G201" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H201" t="b">
         <v>1</v>
@@ -8341,7 +8344,7 @@
         <v>1001</v>
       </c>
       <c r="G202" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H202" t="b">
         <v>1</v>
@@ -8373,7 +8376,7 @@
         <v>1001</v>
       </c>
       <c r="G203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H203" t="b">
         <v>1</v>
@@ -8405,7 +8408,7 @@
         <v>1001</v>
       </c>
       <c r="G204" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H204" t="b">
         <v>1</v>
@@ -8437,7 +8440,7 @@
         <v>1001</v>
       </c>
       <c r="G205" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H205" t="b">
         <v>1</v>
@@ -8469,7 +8472,7 @@
         <v>1001</v>
       </c>
       <c r="G206" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H206" t="b">
         <v>1</v>
@@ -8501,7 +8504,7 @@
         <v>1001</v>
       </c>
       <c r="G207" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H207" t="b">
         <v>1</v>
@@ -8533,7 +8536,7 @@
         <v>1001</v>
       </c>
       <c r="G208" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H208" t="b">
         <v>1</v>
@@ -8565,7 +8568,7 @@
         <v>1001</v>
       </c>
       <c r="G209" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H209" t="b">
         <v>1</v>
@@ -8597,7 +8600,7 @@
         <v>1001</v>
       </c>
       <c r="G210" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H210" t="b">
         <v>1</v>
@@ -8629,7 +8632,7 @@
         <v>1001</v>
       </c>
       <c r="G211" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H211" t="b">
         <v>1</v>
@@ -8661,7 +8664,7 @@
         <v>1001</v>
       </c>
       <c r="G212" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H212" t="b">
         <v>1</v>
@@ -8693,7 +8696,7 @@
         <v>1001</v>
       </c>
       <c r="G213" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H213" t="b">
         <v>1</v>
@@ -8725,7 +8728,7 @@
         <v>1001</v>
       </c>
       <c r="G214" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H214" t="b">
         <v>1</v>
@@ -8757,7 +8760,7 @@
         <v>1001</v>
       </c>
       <c r="G215" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H215" t="b">
         <v>1</v>
@@ -8789,7 +8792,7 @@
         <v>1001</v>
       </c>
       <c r="G216" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H216" t="b">
         <v>1</v>
@@ -8821,7 +8824,7 @@
         <v>1001</v>
       </c>
       <c r="G217" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H217" t="b">
         <v>1</v>
@@ -8853,7 +8856,7 @@
         <v>1001</v>
       </c>
       <c r="G218" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H218" t="b">
         <v>1</v>
@@ -8885,7 +8888,7 @@
         <v>1001</v>
       </c>
       <c r="G219" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H219" t="b">
         <v>1</v>
@@ -8917,7 +8920,7 @@
         <v>1001</v>
       </c>
       <c r="G220" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H220" t="b">
         <v>1</v>
@@ -8949,7 +8952,7 @@
         <v>1001</v>
       </c>
       <c r="G221" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H221" t="b">
         <v>1</v>
@@ -8981,7 +8984,7 @@
         <v>1001</v>
       </c>
       <c r="G222" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H222" t="b">
         <v>1</v>
@@ -9013,7 +9016,7 @@
         <v>1001</v>
       </c>
       <c r="G223" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H223" t="b">
         <v>1</v>
@@ -9045,7 +9048,7 @@
         <v>1001</v>
       </c>
       <c r="G224" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H224" t="b">
         <v>1</v>
@@ -9077,7 +9080,7 @@
         <v>1001</v>
       </c>
       <c r="G225" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H225" t="b">
         <v>1</v>
@@ -9109,7 +9112,7 @@
         <v>1001</v>
       </c>
       <c r="G226" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H226" t="b">
         <v>1</v>
@@ -9141,7 +9144,7 @@
         <v>1001</v>
       </c>
       <c r="G227" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H227" t="b">
         <v>1</v>
@@ -9173,7 +9176,7 @@
         <v>1001</v>
       </c>
       <c r="G228" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H228" t="b">
         <v>1</v>
@@ -9205,7 +9208,7 @@
         <v>1001</v>
       </c>
       <c r="G229" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H229" t="b">
         <v>1</v>
@@ -9237,7 +9240,7 @@
         <v>1001</v>
       </c>
       <c r="G230" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H230" t="b">
         <v>1</v>
@@ -9269,7 +9272,7 @@
         <v>1001</v>
       </c>
       <c r="G231" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H231" t="b">
         <v>1</v>
@@ -9301,7 +9304,7 @@
         <v>1001</v>
       </c>
       <c r="G232" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H232" t="b">
         <v>1</v>
@@ -9333,7 +9336,7 @@
         <v>1001</v>
       </c>
       <c r="G233" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H233" t="b">
         <v>1</v>
@@ -9365,7 +9368,7 @@
         <v>1001</v>
       </c>
       <c r="G234" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H234" t="b">
         <v>1</v>
@@ -9397,7 +9400,7 @@
         <v>1001</v>
       </c>
       <c r="G235" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H235" t="b">
         <v>1</v>
@@ -9417,7 +9420,7 @@
         <v>164</v>
       </c>
       <c r="C236" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D236" t="s">
         <v>165</v>
@@ -9429,7 +9432,7 @@
         <v>1001</v>
       </c>
       <c r="G236" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H236" t="b">
         <v>1</v>
@@ -9461,7 +9464,7 @@
         <v>1001</v>
       </c>
       <c r="G237" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H237" t="b">
         <v>1</v>
@@ -9493,7 +9496,7 @@
         <v>1001</v>
       </c>
       <c r="G238" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H238" t="b">
         <v>1</v>
@@ -9525,7 +9528,7 @@
         <v>1001</v>
       </c>
       <c r="G239" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H239" t="b">
         <v>1</v>
@@ -9545,7 +9548,7 @@
         <v>179</v>
       </c>
       <c r="C240" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D240" t="s">
         <v>180</v>
@@ -9557,7 +9560,7 @@
         <v>1001</v>
       </c>
       <c r="G240" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H240" t="b">
         <v>1</v>
@@ -9589,7 +9592,7 @@
         <v>1001</v>
       </c>
       <c r="G241" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H241" t="b">
         <v>1</v>
@@ -9621,7 +9624,7 @@
         <v>1001</v>
       </c>
       <c r="G242" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H242" t="b">
         <v>1</v>
@@ -9653,7 +9656,7 @@
         <v>1001</v>
       </c>
       <c r="G243" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H243" t="b">
         <v>1</v>
@@ -9685,7 +9688,7 @@
         <v>1001</v>
       </c>
       <c r="G244" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H244" t="b">
         <v>1</v>
@@ -9717,7 +9720,7 @@
         <v>1001</v>
       </c>
       <c r="G245" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H245" t="b">
         <v>1</v>
@@ -9749,7 +9752,7 @@
         <v>1001</v>
       </c>
       <c r="G246" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H246" t="b">
         <v>1</v>
@@ -9781,7 +9784,7 @@
         <v>1001</v>
       </c>
       <c r="G247" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H247" t="b">
         <v>1</v>
@@ -9813,7 +9816,7 @@
         <v>1001</v>
       </c>
       <c r="G248" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H248" t="b">
         <v>1</v>
@@ -9833,7 +9836,7 @@
         <v>214</v>
       </c>
       <c r="C249" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D249" t="s">
         <v>215</v>
@@ -9845,7 +9848,7 @@
         <v>1001</v>
       </c>
       <c r="G249" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H249" t="b">
         <v>1</v>
@@ -9877,7 +9880,7 @@
         <v>1001</v>
       </c>
       <c r="G250" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H250" t="b">
         <v>1</v>
@@ -9909,7 +9912,7 @@
         <v>1001</v>
       </c>
       <c r="G251" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H251" t="b">
         <v>1</v>
@@ -9941,7 +9944,7 @@
         <v>1001</v>
       </c>
       <c r="G252" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H252" t="b">
         <v>1</v>
@@ -9973,7 +9976,7 @@
         <v>1001</v>
       </c>
       <c r="G253" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H253" t="b">
         <v>1</v>
@@ -10005,7 +10008,7 @@
         <v>1001</v>
       </c>
       <c r="G254" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H254" t="b">
         <v>1</v>
@@ -10037,7 +10040,7 @@
         <v>1001</v>
       </c>
       <c r="G255" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H255" t="b">
         <v>1</v>
@@ -10054,10 +10057,10 @@
         <v>10059</v>
       </c>
       <c r="B256" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C256" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D256" t="s">
         <v>200</v>
@@ -10069,7 +10072,7 @@
         <v>1001</v>
       </c>
       <c r="G256" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H256" t="b">
         <v>1</v>
@@ -10086,10 +10089,10 @@
         <v>10060</v>
       </c>
       <c r="B257" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C257" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D257" t="s">
         <v>204</v>
@@ -10101,7 +10104,7 @@
         <v>1001</v>
       </c>
       <c r="G257" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H257" t="b">
         <v>1</v>
@@ -10118,10 +10121,10 @@
         <v>10061</v>
       </c>
       <c r="B258" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C258" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D258" t="s">
         <v>208</v>
@@ -10133,7 +10136,7 @@
         <v>1001</v>
       </c>
       <c r="G258" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H258" t="b">
         <v>1</v>
@@ -10150,7 +10153,7 @@
         <v>10062</v>
       </c>
       <c r="B259" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C259" t="s">
         <v>149</v>
@@ -10165,7 +10168,7 @@
         <v>1001</v>
       </c>
       <c r="G259" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H259" t="b">
         <v>1</v>
@@ -10182,10 +10185,10 @@
         <v>10063</v>
       </c>
       <c r="B260" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C260" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D260" t="s">
         <v>215</v>
@@ -10197,7 +10200,7 @@
         <v>1001</v>
       </c>
       <c r="G260" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H260" t="b">
         <v>1</v>
@@ -10214,10 +10217,10 @@
         <v>10064</v>
       </c>
       <c r="B261" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C261" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D261" t="s">
         <v>219</v>
@@ -10229,7 +10232,7 @@
         <v>1001</v>
       </c>
       <c r="G261" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H261" t="b">
         <v>1</v>
@@ -10246,10 +10249,10 @@
         <v>10065</v>
       </c>
       <c r="B262" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C262" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D262" t="s">
         <v>223</v>
@@ -10261,7 +10264,7 @@
         <v>1001</v>
       </c>
       <c r="G262" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H262" t="b">
         <v>1</v>
@@ -10278,10 +10281,10 @@
         <v>10066</v>
       </c>
       <c r="B263" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C263" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D263" t="s">
         <v>227</v>
@@ -10293,7 +10296,7 @@
         <v>1001</v>
       </c>
       <c r="G263" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H263" t="b">
         <v>1</v>
@@ -10310,10 +10313,10 @@
         <v>10067</v>
       </c>
       <c r="B264" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C264" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D264" t="s">
         <v>231</v>
@@ -10325,7 +10328,7 @@
         <v>1001</v>
       </c>
       <c r="G264" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H264" t="b">
         <v>1</v>
@@ -10342,10 +10345,10 @@
         <v>10068</v>
       </c>
       <c r="B265" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C265" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D265" t="s">
         <v>234</v>
@@ -10357,7 +10360,7 @@
         <v>1001</v>
       </c>
       <c r="G265" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H265" t="b">
         <v>1</v>
@@ -10374,10 +10377,10 @@
         <v>10069</v>
       </c>
       <c r="B266" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C266" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D266" t="s">
         <v>238</v>
@@ -10389,7 +10392,7 @@
         <v>1001</v>
       </c>
       <c r="G266" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H266" t="b">
         <v>1</v>
@@ -10406,22 +10409,22 @@
         <v>10070</v>
       </c>
       <c r="B267" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C267" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D267" t="s">
         <v>200</v>
       </c>
       <c r="E267" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F267">
         <v>1001</v>
       </c>
       <c r="G267" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H267" t="b">
         <v>1</v>
@@ -10438,22 +10441,22 @@
         <v>10071</v>
       </c>
       <c r="B268" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="C268" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="D268" t="s">
         <v>204</v>
       </c>
       <c r="E268" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F268">
         <v>1001</v>
       </c>
       <c r="G268" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H268" t="b">
         <v>1</v>
@@ -10473,19 +10476,19 @@
         <v>240</v>
       </c>
       <c r="C269" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="D269" t="s">
         <v>208</v>
       </c>
       <c r="E269" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F269">
         <v>1001</v>
       </c>
       <c r="G269" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H269" t="b">
         <v>1</v>
@@ -10505,19 +10508,19 @@
         <v>240</v>
       </c>
       <c r="C270" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D270" t="s">
         <v>212</v>
       </c>
       <c r="E270" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F270">
         <v>1001</v>
       </c>
       <c r="G270" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H270" t="b">
         <v>1</v>
@@ -10537,19 +10540,19 @@
         <v>240</v>
       </c>
       <c r="C271" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D271" t="s">
         <v>215</v>
       </c>
       <c r="E271" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F271">
         <v>1001</v>
       </c>
       <c r="G271" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H271" t="b">
         <v>1</v>
@@ -10569,19 +10572,19 @@
         <v>240</v>
       </c>
       <c r="C272" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D272" t="s">
         <v>219</v>
       </c>
       <c r="E272" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F272">
         <v>1001</v>
       </c>
       <c r="G272" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H272" t="b">
         <v>1</v>
@@ -10601,19 +10604,19 @@
         <v>240</v>
       </c>
       <c r="C273" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D273" t="s">
         <v>223</v>
       </c>
       <c r="E273" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F273">
         <v>1001</v>
       </c>
       <c r="G273" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H273" t="b">
         <v>1</v>
@@ -10633,19 +10636,19 @@
         <v>240</v>
       </c>
       <c r="C274" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D274" t="s">
         <v>227</v>
       </c>
       <c r="E274" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F274">
         <v>1001</v>
       </c>
       <c r="G274" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H274" t="b">
         <v>1</v>
@@ -10665,19 +10668,19 @@
         <v>240</v>
       </c>
       <c r="C275" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D275" t="s">
         <v>231</v>
       </c>
       <c r="E275" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F275">
         <v>1001</v>
       </c>
       <c r="G275" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H275" t="b">
         <v>1</v>
@@ -10697,19 +10700,19 @@
         <v>240</v>
       </c>
       <c r="C276" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D276" t="s">
         <v>234</v>
       </c>
       <c r="E276" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F276">
         <v>1001</v>
       </c>
       <c r="G276" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H276" t="b">
         <v>1</v>
@@ -10729,19 +10732,19 @@
         <v>240</v>
       </c>
       <c r="C277" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D277" t="s">
         <v>238</v>
       </c>
       <c r="E277" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F277">
         <v>1001</v>
       </c>
       <c r="G277" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H277" t="b">
         <v>1</v>
@@ -10761,19 +10764,19 @@
         <v>240</v>
       </c>
       <c r="C278" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D278" t="s">
         <v>200</v>
       </c>
       <c r="E278" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F278">
         <v>1001</v>
       </c>
       <c r="G278" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H278" t="b">
         <v>1</v>
@@ -10793,19 +10796,19 @@
         <v>240</v>
       </c>
       <c r="C279" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D279" t="s">
         <v>204</v>
       </c>
       <c r="E279" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F279">
         <v>1001</v>
       </c>
       <c r="G279" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H279" t="b">
         <v>1</v>
@@ -10825,19 +10828,19 @@
         <v>240</v>
       </c>
       <c r="C280" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D280" t="s">
         <v>208</v>
       </c>
       <c r="E280" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F280">
         <v>1001</v>
       </c>
       <c r="G280" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H280" t="b">
         <v>1</v>
@@ -10857,19 +10860,19 @@
         <v>240</v>
       </c>
       <c r="C281" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D281" t="s">
         <v>212</v>
       </c>
       <c r="E281" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F281">
         <v>1001</v>
       </c>
       <c r="G281" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H281" t="b">
         <v>1</v>
@@ -10889,19 +10892,19 @@
         <v>240</v>
       </c>
       <c r="C282" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D282" t="s">
         <v>215</v>
       </c>
       <c r="E282" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F282">
         <v>1001</v>
       </c>
       <c r="G282" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H282" t="b">
         <v>1</v>
@@ -10921,19 +10924,19 @@
         <v>240</v>
       </c>
       <c r="C283" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D283" t="s">
         <v>219</v>
       </c>
       <c r="E283" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F283">
         <v>1001</v>
       </c>
       <c r="G283" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H283" t="b">
         <v>1</v>
@@ -10953,19 +10956,19 @@
         <v>240</v>
       </c>
       <c r="C284" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D284" t="s">
         <v>223</v>
       </c>
       <c r="E284" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F284">
         <v>1001</v>
       </c>
       <c r="G284" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H284" t="b">
         <v>1</v>
@@ -10985,19 +10988,19 @@
         <v>240</v>
       </c>
       <c r="C285" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D285" t="s">
         <v>227</v>
       </c>
       <c r="E285" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F285">
         <v>1001</v>
       </c>
       <c r="G285" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H285" t="b">
         <v>1</v>
@@ -11017,19 +11020,19 @@
         <v>240</v>
       </c>
       <c r="C286" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D286" t="s">
         <v>231</v>
       </c>
       <c r="E286" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F286">
         <v>1001</v>
       </c>
       <c r="G286" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H286" t="b">
         <v>1</v>
@@ -11049,19 +11052,19 @@
         <v>240</v>
       </c>
       <c r="C287" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D287" t="s">
         <v>234</v>
       </c>
       <c r="E287" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F287">
         <v>1001</v>
       </c>
       <c r="G287" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H287" t="b">
         <v>1</v>
@@ -11081,19 +11084,19 @@
         <v>240</v>
       </c>
       <c r="C288" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D288" t="s">
         <v>238</v>
       </c>
       <c r="E288" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F288">
         <v>1001</v>
       </c>
       <c r="G288" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H288" t="b">
         <v>1</v>
@@ -11113,19 +11116,19 @@
         <v>240</v>
       </c>
       <c r="C289" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D289" t="s">
         <v>200</v>
       </c>
       <c r="E289" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F289">
         <v>1001</v>
       </c>
       <c r="G289" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H289" t="b">
         <v>1</v>
@@ -11145,19 +11148,19 @@
         <v>240</v>
       </c>
       <c r="C290" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D290" t="s">
         <v>204</v>
       </c>
       <c r="E290" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F290">
         <v>1001</v>
       </c>
       <c r="G290" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H290" t="b">
         <v>1</v>
@@ -11177,19 +11180,19 @@
         <v>240</v>
       </c>
       <c r="C291" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D291" t="s">
         <v>208</v>
       </c>
       <c r="E291" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F291">
         <v>1001</v>
       </c>
       <c r="G291" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H291" t="b">
         <v>1</v>
@@ -11209,19 +11212,19 @@
         <v>240</v>
       </c>
       <c r="C292" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D292" t="s">
         <v>212</v>
       </c>
       <c r="E292" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F292">
         <v>1001</v>
       </c>
       <c r="G292" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H292" t="b">
         <v>1</v>
@@ -11241,19 +11244,19 @@
         <v>240</v>
       </c>
       <c r="C293" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D293" t="s">
         <v>215</v>
       </c>
       <c r="E293" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F293">
         <v>1001</v>
       </c>
       <c r="G293" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H293" t="b">
         <v>1</v>
@@ -11273,19 +11276,19 @@
         <v>240</v>
       </c>
       <c r="C294" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D294" t="s">
         <v>219</v>
       </c>
       <c r="E294" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F294">
         <v>1001</v>
       </c>
       <c r="G294" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H294" t="b">
         <v>1</v>
@@ -11305,19 +11308,19 @@
         <v>240</v>
       </c>
       <c r="C295" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D295" t="s">
         <v>223</v>
       </c>
       <c r="E295" t="s">
+        <v>307</v>
+      </c>
+      <c r="F295">
+        <v>1001</v>
+      </c>
+      <c r="G295" t="s">
         <v>309</v>
-      </c>
-      <c r="F295">
-        <v>1001</v>
-      </c>
-      <c r="G295" t="s">
-        <v>311</v>
       </c>
       <c r="H295" t="b">
         <v>1</v>

--- a/_files/requirements/master_data/master-machine_master.xlsx
+++ b/_files/requirements/master_data/master-machine_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61CE65C-E803-40FD-8032-AAFAD8778AA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1C900B92-2241-4E63-9E47-52E6942021FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1362,6 +1362,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1523,8 +1529,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1883,7 +1891,7 @@
   <dimension ref="A1:J295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7237,7 +7245,7 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A168">
+      <c r="A168" s="2">
         <v>10069</v>
       </c>
       <c r="B168" t="s">
@@ -7301,7 +7309,7 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>10071</v>
       </c>
       <c r="B170" t="s">

--- a/_files/requirements/master_data/master-machine_master.xlsx
+++ b/_files/requirements/master_data/master-machine_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26F9A40C-A3B3-455B-9A6E-9415C30D07A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{23CEE101-EAE6-4003-BF0D-E268ADDF73BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,9 +1045,6 @@
     <t>techno-236</t>
   </si>
   <si>
-    <t>54-BF-64-4C-8F-7D</t>
-  </si>
-  <si>
     <t>Techno-251</t>
   </si>
   <si>
@@ -1100,6 +1097,9 @@
   </si>
   <si>
     <t>3C-2C-30-C8-30-57</t>
+  </si>
+  <si>
+    <t>3C-2C-30-B4-00-C0</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K295"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4558,7 +4558,7 @@
         <v>339</v>
       </c>
       <c r="C75" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="D75" t="s">
         <v>215</v>
@@ -4590,10 +4590,10 @@
         <v>10075</v>
       </c>
       <c r="B76" t="s">
+        <v>340</v>
+      </c>
+      <c r="C76" t="s">
         <v>341</v>
-      </c>
-      <c r="C76" t="s">
-        <v>342</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
@@ -4625,10 +4625,10 @@
         <v>10076</v>
       </c>
       <c r="B77" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" t="s">
         <v>343</v>
-      </c>
-      <c r="C77" t="s">
-        <v>344</v>
       </c>
       <c r="D77" t="s">
         <v>223</v>
@@ -4660,10 +4660,10 @@
         <v>10077</v>
       </c>
       <c r="B78" t="s">
+        <v>344</v>
+      </c>
+      <c r="C78" t="s">
         <v>345</v>
-      </c>
-      <c r="C78" t="s">
-        <v>346</v>
       </c>
       <c r="D78" t="s">
         <v>227</v>
@@ -4695,10 +4695,10 @@
         <v>10078</v>
       </c>
       <c r="B79" t="s">
+        <v>346</v>
+      </c>
+      <c r="C79" t="s">
         <v>347</v>
-      </c>
-      <c r="C79" t="s">
-        <v>348</v>
       </c>
       <c r="D79" t="s">
         <v>231</v>
@@ -4730,10 +4730,10 @@
         <v>10079</v>
       </c>
       <c r="B80" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" t="s">
         <v>349</v>
-      </c>
-      <c r="C80" t="s">
-        <v>350</v>
       </c>
       <c r="D80" t="s">
         <v>234</v>
@@ -4765,10 +4765,10 @@
         <v>10080</v>
       </c>
       <c r="B81" t="s">
+        <v>350</v>
+      </c>
+      <c r="C81" t="s">
         <v>351</v>
-      </c>
-      <c r="C81" t="s">
-        <v>352</v>
       </c>
       <c r="D81" t="s">
         <v>238</v>
@@ -4800,10 +4800,10 @@
         <v>10081</v>
       </c>
       <c r="B82" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" t="s">
         <v>353</v>
-      </c>
-      <c r="C82" t="s">
-        <v>354</v>
       </c>
       <c r="D82" t="s">
         <v>200</v>
@@ -4835,10 +4835,10 @@
         <v>10082</v>
       </c>
       <c r="B83" t="s">
+        <v>354</v>
+      </c>
+      <c r="C83" t="s">
         <v>355</v>
-      </c>
-      <c r="C83" t="s">
-        <v>356</v>
       </c>
       <c r="D83" t="s">
         <v>204</v>
@@ -4870,10 +4870,10 @@
         <v>10083</v>
       </c>
       <c r="B84" t="s">
+        <v>356</v>
+      </c>
+      <c r="C84" t="s">
         <v>357</v>
-      </c>
-      <c r="C84" t="s">
-        <v>358</v>
       </c>
       <c r="D84" t="s">
         <v>208</v>
@@ -7988,7 +7988,7 @@
         <v>339</v>
       </c>
       <c r="C173" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="D173" t="s">
         <v>215</v>
@@ -8020,10 +8020,10 @@
         <v>10075</v>
       </c>
       <c r="B174" t="s">
+        <v>340</v>
+      </c>
+      <c r="C174" t="s">
         <v>341</v>
-      </c>
-      <c r="C174" t="s">
-        <v>342</v>
       </c>
       <c r="D174" t="s">
         <v>219</v>
@@ -8055,10 +8055,10 @@
         <v>10076</v>
       </c>
       <c r="B175" t="s">
+        <v>342</v>
+      </c>
+      <c r="C175" t="s">
         <v>343</v>
-      </c>
-      <c r="C175" t="s">
-        <v>344</v>
       </c>
       <c r="D175" t="s">
         <v>223</v>
@@ -8090,10 +8090,10 @@
         <v>10077</v>
       </c>
       <c r="B176" t="s">
+        <v>344</v>
+      </c>
+      <c r="C176" t="s">
         <v>345</v>
-      </c>
-      <c r="C176" t="s">
-        <v>346</v>
       </c>
       <c r="D176" t="s">
         <v>227</v>
@@ -8125,10 +8125,10 @@
         <v>10078</v>
       </c>
       <c r="B177" t="s">
+        <v>346</v>
+      </c>
+      <c r="C177" t="s">
         <v>347</v>
-      </c>
-      <c r="C177" t="s">
-        <v>348</v>
       </c>
       <c r="D177" t="s">
         <v>231</v>
@@ -8160,10 +8160,10 @@
         <v>10079</v>
       </c>
       <c r="B178" t="s">
+        <v>348</v>
+      </c>
+      <c r="C178" t="s">
         <v>349</v>
-      </c>
-      <c r="C178" t="s">
-        <v>350</v>
       </c>
       <c r="D178" t="s">
         <v>234</v>
@@ -8195,10 +8195,10 @@
         <v>10080</v>
       </c>
       <c r="B179" t="s">
+        <v>350</v>
+      </c>
+      <c r="C179" t="s">
         <v>351</v>
-      </c>
-      <c r="C179" t="s">
-        <v>352</v>
       </c>
       <c r="D179" t="s">
         <v>238</v>
@@ -8230,10 +8230,10 @@
         <v>10081</v>
       </c>
       <c r="B180" t="s">
+        <v>352</v>
+      </c>
+      <c r="C180" t="s">
         <v>353</v>
-      </c>
-      <c r="C180" t="s">
-        <v>354</v>
       </c>
       <c r="D180" t="s">
         <v>200</v>
@@ -8265,10 +8265,10 @@
         <v>10082</v>
       </c>
       <c r="B181" t="s">
+        <v>354</v>
+      </c>
+      <c r="C181" t="s">
         <v>355</v>
-      </c>
-      <c r="C181" t="s">
-        <v>356</v>
       </c>
       <c r="D181" t="s">
         <v>204</v>
@@ -8300,10 +8300,10 @@
         <v>10083</v>
       </c>
       <c r="B182" t="s">
+        <v>356</v>
+      </c>
+      <c r="C182" t="s">
         <v>357</v>
-      </c>
-      <c r="C182" t="s">
-        <v>358</v>
       </c>
       <c r="D182" t="s">
         <v>208</v>
@@ -11418,7 +11418,7 @@
         <v>339</v>
       </c>
       <c r="C271" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="D271" t="s">
         <v>215</v>
@@ -11450,10 +11450,10 @@
         <v>10075</v>
       </c>
       <c r="B272" t="s">
+        <v>340</v>
+      </c>
+      <c r="C272" t="s">
         <v>341</v>
-      </c>
-      <c r="C272" t="s">
-        <v>342</v>
       </c>
       <c r="D272" t="s">
         <v>219</v>
@@ -11485,10 +11485,10 @@
         <v>10076</v>
       </c>
       <c r="B273" t="s">
+        <v>342</v>
+      </c>
+      <c r="C273" t="s">
         <v>343</v>
-      </c>
-      <c r="C273" t="s">
-        <v>344</v>
       </c>
       <c r="D273" t="s">
         <v>223</v>
@@ -11520,10 +11520,10 @@
         <v>10077</v>
       </c>
       <c r="B274" t="s">
+        <v>344</v>
+      </c>
+      <c r="C274" t="s">
         <v>345</v>
-      </c>
-      <c r="C274" t="s">
-        <v>346</v>
       </c>
       <c r="D274" t="s">
         <v>227</v>
@@ -11555,10 +11555,10 @@
         <v>10078</v>
       </c>
       <c r="B275" t="s">
+        <v>346</v>
+      </c>
+      <c r="C275" t="s">
         <v>347</v>
-      </c>
-      <c r="C275" t="s">
-        <v>348</v>
       </c>
       <c r="D275" t="s">
         <v>231</v>
@@ -11590,10 +11590,10 @@
         <v>10079</v>
       </c>
       <c r="B276" t="s">
+        <v>348</v>
+      </c>
+      <c r="C276" t="s">
         <v>349</v>
-      </c>
-      <c r="C276" t="s">
-        <v>350</v>
       </c>
       <c r="D276" t="s">
         <v>234</v>
@@ -11625,10 +11625,10 @@
         <v>10080</v>
       </c>
       <c r="B277" t="s">
+        <v>350</v>
+      </c>
+      <c r="C277" t="s">
         <v>351</v>
-      </c>
-      <c r="C277" t="s">
-        <v>352</v>
       </c>
       <c r="D277" t="s">
         <v>238</v>
@@ -11660,10 +11660,10 @@
         <v>10081</v>
       </c>
       <c r="B278" t="s">
+        <v>352</v>
+      </c>
+      <c r="C278" t="s">
         <v>353</v>
-      </c>
-      <c r="C278" t="s">
-        <v>354</v>
       </c>
       <c r="D278" t="s">
         <v>200</v>
@@ -11695,10 +11695,10 @@
         <v>10082</v>
       </c>
       <c r="B279" t="s">
+        <v>354</v>
+      </c>
+      <c r="C279" t="s">
         <v>355</v>
-      </c>
-      <c r="C279" t="s">
-        <v>356</v>
       </c>
       <c r="D279" t="s">
         <v>204</v>
@@ -11730,10 +11730,10 @@
         <v>10083</v>
       </c>
       <c r="B280" t="s">
+        <v>356</v>
+      </c>
+      <c r="C280" t="s">
         <v>357</v>
-      </c>
-      <c r="C280" t="s">
-        <v>358</v>
       </c>
       <c r="D280" t="s">
         <v>208</v>
